--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1751738.403242485</v>
+        <v>-1752486.804753406</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4354305.171692329</v>
+        <v>4354305.171692323</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>64.21702877167374</v>
       </c>
       <c r="D11" t="n">
-        <v>239.8776541311002</v>
+        <v>239.8776541311001</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.6197917010056</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7916077889829</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>282.1305160374088</v>
+        <v>282.1305160374087</v>
       </c>
       <c r="H11" t="n">
-        <v>194.1880049094286</v>
+        <v>194.1880049094285</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.59464412049036</v>
+        <v>42.59464412049024</v>
       </c>
       <c r="T11" t="n">
-        <v>90.29547644886773</v>
+        <v>90.2954764488676</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.0708631572776</v>
       </c>
       <c r="V11" t="n">
-        <v>142.8159763630169</v>
+        <v>204.3914103690695</v>
       </c>
       <c r="W11" t="n">
-        <v>229.6915098470265</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.9917680797731</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,19 +1452,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>8.232179645741581</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>16.33965884974901</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>4.128789075675826</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.07314993943596</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>56.7494185219329</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S12" t="n">
-        <v>16.1465165292565</v>
+        <v>16.14651652925639</v>
       </c>
       <c r="T12" t="n">
         <v>185.5164475248238</v>
@@ -1509,13 +1509,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>148.7577890245113</v>
       </c>
       <c r="X12" t="n">
-        <v>66.71974724703489</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>61.37804209296837</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.50174400358756</v>
+        <v>52.50174400358745</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898804</v>
+        <v>38.70173884898793</v>
       </c>
       <c r="D13" t="n">
-        <v>22.32310324656643</v>
+        <v>22.32310324656632</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234588</v>
+        <v>21.27085310234577</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053219</v>
+        <v>21.73777743053208</v>
       </c>
       <c r="G13" t="n">
-        <v>37.74587087490183</v>
+        <v>37.74587087490171</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016424</v>
+        <v>26.19044893016413</v>
       </c>
       <c r="I13" t="n">
-        <v>5.525274884455303</v>
+        <v>5.525274884455191</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.820769996597203</v>
+        <v>6.820769996597091</v>
       </c>
       <c r="S13" t="n">
-        <v>77.70832139488073</v>
+        <v>77.70832139488061</v>
       </c>
       <c r="T13" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296225</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0857237976439</v>
+        <v>155.0857237976437</v>
       </c>
       <c r="V13" t="n">
-        <v>128.9098804032132</v>
+        <v>128.909880403213</v>
       </c>
       <c r="W13" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738263</v>
       </c>
       <c r="X13" t="n">
-        <v>99.72186846962953</v>
+        <v>99.72186846962941</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.59673622569721</v>
+        <v>90.5967362256971</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.8850331288905</v>
+        <v>260.8850331288904</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865722</v>
+        <v>248.8963500865721</v>
       </c>
       <c r="D14" t="n">
-        <v>239.8776541311002</v>
+        <v>239.8776541311001</v>
       </c>
       <c r="E14" t="n">
-        <v>261.6197917010057</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>146.3029555036007</v>
       </c>
       <c r="G14" t="n">
-        <v>282.1305160374088</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>136.0278972032547</v>
+        <v>194.1880049094285</v>
       </c>
       <c r="I14" t="n">
-        <v>18.95690544140081</v>
+        <v>18.9569054414007</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.59464412049035</v>
+        <v>42.59464412049024</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>90.29547644886762</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.3883658759719</v>
+        <v>260.3883658759718</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>28.6071773594997</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>30.86856503750627</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>16.3396588497489</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>4.128789075675826</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.046380251253483</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S15" t="n">
         <v>145.364587523205</v>
@@ -1746,13 +1746,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>109.6846390850746</v>
+        <v>182.1086925721323</v>
       </c>
       <c r="X15" t="n">
-        <v>66.71974724703489</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>61.37804209296849</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.50174400358756</v>
+        <v>52.50174400358745</v>
       </c>
       <c r="C16" t="n">
-        <v>38.70173884898804</v>
+        <v>38.70173884898793</v>
       </c>
       <c r="D16" t="n">
-        <v>22.32310324656643</v>
+        <v>22.32310324656632</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234588</v>
+        <v>21.27085310234577</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053219</v>
+        <v>21.73777743053208</v>
       </c>
       <c r="G16" t="n">
-        <v>37.74587087490183</v>
+        <v>37.74587087490171</v>
       </c>
       <c r="H16" t="n">
-        <v>26.19044893016424</v>
+        <v>26.19044893016413</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455303</v>
+        <v>5.525274884455191</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.820769996597203</v>
+        <v>6.820769996597091</v>
       </c>
       <c r="S16" t="n">
-        <v>77.70832139488073</v>
+        <v>77.70832139488061</v>
       </c>
       <c r="T16" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296225</v>
       </c>
       <c r="U16" t="n">
-        <v>155.0857237976439</v>
+        <v>155.0857237976437</v>
       </c>
       <c r="V16" t="n">
-        <v>128.9098804032132</v>
+        <v>128.909880403213</v>
       </c>
       <c r="W16" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738263</v>
       </c>
       <c r="X16" t="n">
-        <v>99.72186846962953</v>
+        <v>99.72186846962941</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569721</v>
+        <v>90.5967362256971</v>
       </c>
     </row>
     <row r="17">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>119.8745816442299</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H18" t="n">
-        <v>25.62919787336905</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>56.7494185219329</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S18" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2889227376699</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I19" t="n">
         <v>134.7433458784038</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>204.0659356871871</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>10.19446748075492</v>
@@ -2059,13 +2059,13 @@
         <v>64.79024734877613</v>
       </c>
       <c r="V19" t="n">
-        <v>38.61440395434545</v>
+        <v>98.80972603513783</v>
       </c>
       <c r="W19" t="n">
         <v>63.78129002495871</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>9.426392020761824</v>
       </c>
       <c r="Y19" t="n">
         <v>0.3012597768295109</v>
@@ -2084,7 +2084,7 @@
         <v>158.6008736377045</v>
       </c>
       <c r="D20" t="n">
-        <v>149.5821776822325</v>
+        <v>149.5821776822321</v>
       </c>
       <c r="E20" t="n">
         <v>171.324315252138</v>
@@ -2093,10 +2093,10 @@
         <v>190.4961313401152</v>
       </c>
       <c r="G20" t="n">
-        <v>191.835039588541</v>
+        <v>191.8350395885411</v>
       </c>
       <c r="H20" t="n">
-        <v>103.8925284605608</v>
+        <v>103.8925284605609</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>32.77538670840997</v>
+        <v>32.77538670841</v>
       </c>
       <c r="V20" t="n">
         <v>114.0959339202019</v>
@@ -2166,16 +2166,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>43.94101225597166</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
         <v>56.7494185219329</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>157.1044832113564</v>
       </c>
     </row>
     <row r="22">
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R22" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
-        <v>202.7704405750453</v>
+        <v>186.943364008072</v>
       </c>
       <c r="T22" t="n">
-        <v>10.19446748075489</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U22" t="n">
-        <v>64.79024734877611</v>
+        <v>64.79024734877613</v>
       </c>
       <c r="V22" t="n">
-        <v>38.61440395434542</v>
+        <v>38.61440395434545</v>
       </c>
       <c r="W22" t="n">
-        <v>63.78129002495868</v>
+        <v>63.78129002495871</v>
       </c>
       <c r="X22" t="n">
-        <v>9.426392020761796</v>
+        <v>9.426392020761824</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0.3012597768295109</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>32.77538670840998</v>
+        <v>32.77538670841</v>
       </c>
       <c r="V23" t="n">
         <v>114.0959339202019</v>
@@ -2397,25 +2397,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>98.64234254810883</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I24" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S24" t="n">
         <v>145.364587523205</v>
@@ -2454,16 +2454,16 @@
         <v>216.2889227376699</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>6.5981188833332</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>150.5300129627989</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>78.68834380516449</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.6354686899206</v>
+        <v>10.19446748075492</v>
       </c>
       <c r="U25" t="n">
-        <v>64.79024734877611</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V25" t="n">
-        <v>38.61440395434542</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>63.78129002495868</v>
+        <v>63.78129002495871</v>
       </c>
       <c r="X25" t="n">
-        <v>9.426392020761796</v>
+        <v>9.426392020761824</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3012597768294825</v>
+        <v>0.3012597768295109</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I26" t="n">
-        <v>46.80352542302693</v>
+        <v>46.80352542302695</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.44126410211648</v>
+        <v>70.44126410211651</v>
       </c>
       <c r="T26" t="n">
         <v>118.1420964304939</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S27" t="n">
         <v>145.364587523205</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.34836398521368</v>
+        <v>80.34836398521371</v>
       </c>
       <c r="C28" t="n">
-        <v>66.54835883061416</v>
+        <v>66.54835883061419</v>
       </c>
       <c r="D28" t="n">
-        <v>50.16972322819255</v>
+        <v>50.16972322819258</v>
       </c>
       <c r="E28" t="n">
-        <v>49.117473083972</v>
+        <v>49.11747308397203</v>
       </c>
       <c r="F28" t="n">
-        <v>49.58439741215831</v>
+        <v>49.58439741215834</v>
       </c>
       <c r="G28" t="n">
-        <v>65.59249085652793</v>
+        <v>65.59249085652797</v>
       </c>
       <c r="H28" t="n">
-        <v>54.03706891179037</v>
+        <v>54.03706891179039</v>
       </c>
       <c r="I28" t="n">
-        <v>33.37189486608143</v>
+        <v>33.37189486608145</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66738997822331</v>
+        <v>34.66738997822335</v>
       </c>
       <c r="S28" t="n">
-        <v>105.5549413765068</v>
+        <v>105.5549413765069</v>
       </c>
       <c r="T28" t="n">
-        <v>128.3365639112487</v>
+        <v>128.3365639112488</v>
       </c>
       <c r="U28" t="n">
         <v>182.93234377927</v>
@@ -2776,10 +2776,10 @@
         <v>181.9233864554525</v>
       </c>
       <c r="X28" t="n">
-        <v>127.5684884512556</v>
+        <v>127.5684884512557</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.4433562073233</v>
+        <v>118.4433562073234</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I29" t="n">
-        <v>46.80352542302693</v>
+        <v>46.80352542302695</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.44126410211648</v>
+        <v>70.44126410211651</v>
       </c>
       <c r="T29" t="n">
         <v>118.1420964304939</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S30" t="n">
         <v>145.364587523205</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.34836398521368</v>
+        <v>80.34836398521371</v>
       </c>
       <c r="C31" t="n">
-        <v>66.54835883061416</v>
+        <v>66.54835883061419</v>
       </c>
       <c r="D31" t="n">
-        <v>50.16972322819255</v>
+        <v>50.16972322819258</v>
       </c>
       <c r="E31" t="n">
-        <v>49.117473083972</v>
+        <v>49.11747308397203</v>
       </c>
       <c r="F31" t="n">
-        <v>49.58439741215831</v>
+        <v>49.58439741215834</v>
       </c>
       <c r="G31" t="n">
-        <v>65.59249085652795</v>
+        <v>65.59249085652796</v>
       </c>
       <c r="H31" t="n">
-        <v>54.03706891179036</v>
+        <v>54.0370689117904</v>
       </c>
       <c r="I31" t="n">
-        <v>33.37189486608142</v>
+        <v>33.37189486608146</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66738997822333</v>
+        <v>34.66738997822334</v>
       </c>
       <c r="S31" t="n">
-        <v>105.5549413765068</v>
+        <v>105.5549413765069</v>
       </c>
       <c r="T31" t="n">
         <v>128.3365639112488</v>
@@ -3013,10 +3013,10 @@
         <v>181.9233864554525</v>
       </c>
       <c r="X31" t="n">
-        <v>127.5684884512556</v>
+        <v>127.5684884512557</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.4433562073233</v>
+        <v>118.4433562073234</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S33" t="n">
         <v>145.364587523205</v>
@@ -3272,7 +3272,7 @@
         <v>203.0457732779442</v>
       </c>
       <c r="E35" t="n">
-        <v>224.7879108478497</v>
+        <v>224.7879108478498</v>
       </c>
       <c r="F35" t="n">
         <v>243.9597269358269</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.76276326733435</v>
+        <v>5.762763267334378</v>
       </c>
       <c r="T35" t="n">
-        <v>53.46359559571172</v>
+        <v>53.46359559571175</v>
       </c>
       <c r="U35" t="n">
-        <v>86.23898230412169</v>
+        <v>86.23898230412172</v>
       </c>
       <c r="V35" t="n">
         <v>167.5595295159136</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S36" t="n">
         <v>145.364587523205</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.66986315043155</v>
+        <v>15.66986315043158</v>
       </c>
       <c r="C37" t="n">
-        <v>1.869857995832035</v>
+        <v>1.869857995832064</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.34216875469506</v>
+        <v>0.9139900217458448</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.7433458784038</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.46775784599857</v>
       </c>
       <c r="S37" t="n">
-        <v>40.87644054172471</v>
+        <v>40.87644054172475</v>
       </c>
       <c r="T37" t="n">
-        <v>63.65806307646661</v>
+        <v>63.65806307646664</v>
       </c>
       <c r="U37" t="n">
-        <v>118.2538429444878</v>
+        <v>118.2538429444879</v>
       </c>
       <c r="V37" t="n">
-        <v>92.07799955005714</v>
+        <v>92.07799955005717</v>
       </c>
       <c r="W37" t="n">
         <v>117.2448856206704</v>
       </c>
       <c r="X37" t="n">
-        <v>62.88998761647352</v>
+        <v>62.88998761647355</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.76485537254121</v>
+        <v>53.76485537254123</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>224.0531522757345</v>
       </c>
       <c r="C38" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D38" t="n">
         <v>203.0457732779442</v>
@@ -3512,7 +3512,7 @@
         <v>224.7879108478498</v>
       </c>
       <c r="F38" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G38" t="n">
         <v>245.2986351842528</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.762763267334378</v>
+        <v>5.762763267334407</v>
       </c>
       <c r="T38" t="n">
-        <v>53.46359559571175</v>
+        <v>53.46359559571178</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412175</v>
       </c>
       <c r="V38" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W38" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X38" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y38" t="n">
         <v>223.5564850228159</v>
@@ -3594,7 +3594,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.1232045289018</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H39" t="n">
         <v>95.86716744632758</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383258</v>
       </c>
       <c r="S39" t="n">
         <v>145.364587523205</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043161</v>
       </c>
       <c r="C40" t="n">
-        <v>1.869857995832064</v>
+        <v>1.869857995832092</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9139900217458448</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>12.16115187729769</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>40.87644054172474</v>
+        <v>40.87644054172478</v>
       </c>
       <c r="T40" t="n">
-        <v>63.65806307646664</v>
+        <v>63.65806307646667</v>
       </c>
       <c r="U40" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V40" t="n">
-        <v>92.07799955005717</v>
+        <v>92.0779995500572</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647355</v>
+        <v>62.88998761647358</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.19303410548993</v>
+        <v>53.76485537254126</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>224.0531522757345</v>
       </c>
       <c r="C41" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D41" t="n">
         <v>203.0457732779442</v>
@@ -3749,7 +3749,7 @@
         <v>224.7879108478498</v>
       </c>
       <c r="F41" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G41" t="n">
         <v>245.2986351842528</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.762763267334378</v>
+        <v>5.762763267334407</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571175</v>
+        <v>53.46359559571178</v>
       </c>
       <c r="U41" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412175</v>
       </c>
       <c r="V41" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W41" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X41" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y41" t="n">
         <v>223.5564850228159</v>
@@ -3837,7 +3837,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I42" t="n">
-        <v>56.74941852193216</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S42" t="n">
         <v>145.364587523205</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043161</v>
       </c>
       <c r="C43" t="n">
-        <v>1.869857995832064</v>
+        <v>1.869857995832092</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.7766368398193</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9139900217458448</v>
+        <v>0.9139900217458732</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.87644054172474</v>
+        <v>40.87644054172478</v>
       </c>
       <c r="T43" t="n">
-        <v>63.65806307646664</v>
+        <v>201.2617764832587</v>
       </c>
       <c r="U43" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V43" t="n">
-        <v>92.07799955005717</v>
+        <v>92.0779995500572</v>
       </c>
       <c r="W43" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X43" t="n">
-        <v>62.88998761647355</v>
+        <v>62.88998761647358</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.76485537254123</v>
+        <v>53.76485537254126</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C44" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334164</v>
       </c>
       <c r="D44" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E44" t="n">
-        <v>224.7879108478498</v>
+        <v>224.7879108478499</v>
       </c>
       <c r="F44" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G44" t="n">
-        <v>245.2986351842528</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H44" t="n">
-        <v>157.3561240562726</v>
+        <v>157.3561240562727</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.762763267334371</v>
+        <v>5.762763267334487</v>
       </c>
       <c r="T44" t="n">
-        <v>53.46359559571174</v>
+        <v>53.46359559571185</v>
       </c>
       <c r="U44" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412183</v>
       </c>
       <c r="V44" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W44" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X44" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266173</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383347</v>
       </c>
       <c r="S45" t="n">
         <v>145.364587523205</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043169</v>
       </c>
       <c r="C46" t="n">
-        <v>1.869857995832064</v>
+        <v>1.869857995832177</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9139900217458448</v>
+        <v>0.9139900217459584</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.16115187729797</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.87644054172474</v>
+        <v>40.87644054172486</v>
       </c>
       <c r="T46" t="n">
-        <v>63.65806307646664</v>
+        <v>75.81921495376371</v>
       </c>
       <c r="U46" t="n">
-        <v>118.2538429444879</v>
+        <v>118.253842944488</v>
       </c>
       <c r="V46" t="n">
-        <v>92.07799955005717</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X46" t="n">
-        <v>62.88998761647355</v>
+        <v>62.88998761647366</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.76485537254123</v>
+        <v>53.76485537254135</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1043.161791758507</v>
+        <v>1088.662006590524</v>
       </c>
       <c r="C11" t="n">
-        <v>1043.161791758507</v>
+        <v>1023.796320962571</v>
       </c>
       <c r="D11" t="n">
-        <v>800.8611310200224</v>
+        <v>781.495660224086</v>
       </c>
       <c r="E11" t="n">
-        <v>800.8611310200224</v>
+        <v>517.2332443644843</v>
       </c>
       <c r="F11" t="n">
-        <v>517.2332443644841</v>
+        <v>517.2332443644843</v>
       </c>
       <c r="G11" t="n">
-        <v>232.2529251347783</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="H11" t="n">
         <v>36.10342522626458</v>
@@ -5039,25 +5039,25 @@
         <v>36.10342522626458</v>
       </c>
       <c r="J11" t="n">
-        <v>36.10342522626458</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="K11" t="n">
-        <v>36.10342522626458</v>
+        <v>473.0321469193354</v>
       </c>
       <c r="L11" t="n">
-        <v>476.8452645171565</v>
+        <v>913.7739862102273</v>
       </c>
       <c r="M11" t="n">
-        <v>923.6251516921807</v>
+        <v>930.2787636703691</v>
       </c>
       <c r="N11" t="n">
-        <v>1370.405038867205</v>
+        <v>930.2787636703691</v>
       </c>
       <c r="O11" t="n">
-        <v>1492.399400986651</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P11" t="n">
-        <v>1805.171261313229</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q11" t="n">
         <v>1805.171261313229</v>
@@ -5066,25 +5066,25 @@
         <v>1805.171261313229</v>
       </c>
       <c r="S11" t="n">
-        <v>1762.146368262228</v>
+        <v>1762.146368262229</v>
       </c>
       <c r="T11" t="n">
-        <v>1670.938816293675</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="U11" t="n">
-        <v>1670.938816293675</v>
+        <v>1546.624813104507</v>
       </c>
       <c r="V11" t="n">
-        <v>1526.68025431083</v>
+        <v>1340.168843034739</v>
       </c>
       <c r="W11" t="n">
-        <v>1294.668628202723</v>
+        <v>1340.168843034739</v>
       </c>
       <c r="X11" t="n">
-        <v>1043.161791758507</v>
+        <v>1088.662006590524</v>
       </c>
       <c r="Y11" t="n">
-        <v>1043.161791758507</v>
+        <v>1088.662006590524</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454.1114081130714</v>
+        <v>545.1668839257102</v>
       </c>
       <c r="C12" t="n">
-        <v>292.407735354026</v>
+        <v>383.4632111666648</v>
       </c>
       <c r="D12" t="n">
-        <v>284.0924023785295</v>
+        <v>244.6245741568769</v>
       </c>
       <c r="E12" t="n">
-        <v>267.5876964696921</v>
+        <v>97.59656421374815</v>
       </c>
       <c r="F12" t="n">
-        <v>132.8938984195665</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="G12" t="n">
-        <v>132.8938984195665</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="H12" t="n">
-        <v>93.42607019791397</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I12" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J12" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K12" t="n">
-        <v>316.4321740980387</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L12" t="n">
-        <v>750.6122480321775</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="M12" t="n">
-        <v>750.6122480321775</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="N12" t="n">
-        <v>996.1766675899484</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="O12" t="n">
-        <v>1442.956554764972</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P12" t="n">
-        <v>1805.171261313229</v>
+        <v>1607.2118143385</v>
       </c>
       <c r="Q12" t="n">
         <v>1805.171261313229</v>
       </c>
       <c r="R12" t="n">
-        <v>1765.330975672993</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S12" t="n">
         <v>1749.021363017179</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.631011982003</v>
+        <v>1561.631011982004</v>
       </c>
       <c r="U12" t="n">
         <v>1343.157352651024</v>
       </c>
       <c r="V12" t="n">
-        <v>1114.761730099357</v>
+        <v>1114.761730099358</v>
       </c>
       <c r="W12" t="n">
-        <v>873.4458613326675</v>
+        <v>964.5013371453061</v>
       </c>
       <c r="X12" t="n">
-        <v>806.0521772447535</v>
+        <v>766.5843490231007</v>
       </c>
       <c r="Y12" t="n">
-        <v>613.5308508943323</v>
+        <v>704.586326706971</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3509679716726</v>
+        <v>211.3509679716718</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2583024676443</v>
+        <v>172.2583024676436</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7097133296984</v>
+        <v>149.7097133296978</v>
       </c>
       <c r="E13" t="n">
-        <v>128.2240031253086</v>
+        <v>128.2240031253081</v>
       </c>
       <c r="F13" t="n">
-        <v>106.2666521853771</v>
+        <v>106.2666521853767</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13950988749644</v>
+        <v>68.13950988749622</v>
       </c>
       <c r="H13" t="n">
-        <v>41.68451096813862</v>
+        <v>41.68451096813851</v>
       </c>
       <c r="I13" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J13" t="n">
-        <v>123.8279990958396</v>
+        <v>123.8279990958397</v>
       </c>
       <c r="K13" t="n">
-        <v>188.0975858785158</v>
+        <v>188.0975858785159</v>
       </c>
       <c r="L13" t="n">
-        <v>455.871708604098</v>
+        <v>327.9458183200891</v>
       </c>
       <c r="M13" t="n">
-        <v>615.2395085981161</v>
+        <v>584.2773462222476</v>
       </c>
       <c r="N13" t="n">
-        <v>774.0523559820832</v>
+        <v>743.0901936062147</v>
       </c>
       <c r="O13" t="n">
-        <v>909.8231718238867</v>
+        <v>878.8610094480182</v>
       </c>
       <c r="P13" t="n">
-        <v>1004.714383940287</v>
+        <v>973.7522215644181</v>
       </c>
       <c r="Q13" t="n">
-        <v>1086.009306047126</v>
+        <v>1086.009306047124</v>
       </c>
       <c r="R13" t="n">
-        <v>1079.119639383896</v>
+        <v>1079.119639383894</v>
       </c>
       <c r="S13" t="n">
-        <v>1000.626385449673</v>
+        <v>1000.626385449671</v>
       </c>
       <c r="T13" t="n">
-        <v>899.1213915813673</v>
+        <v>899.1213915813659</v>
       </c>
       <c r="U13" t="n">
-        <v>742.469145321121</v>
+        <v>742.4691453211196</v>
       </c>
       <c r="V13" t="n">
-        <v>612.257144913835</v>
+        <v>612.2571449138337</v>
       </c>
       <c r="W13" t="n">
-        <v>456.6240474655255</v>
+        <v>456.6240474655243</v>
       </c>
       <c r="X13" t="n">
-        <v>355.8948873951926</v>
+        <v>355.8948873951916</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.3830326217611</v>
+        <v>264.3830326217602</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1235.60758138863</v>
+        <v>892.8931929758626</v>
       </c>
       <c r="C14" t="n">
-        <v>984.197126755729</v>
+        <v>641.4827383429614</v>
       </c>
       <c r="D14" t="n">
-        <v>741.8964660172439</v>
+        <v>399.1820776044764</v>
       </c>
       <c r="E14" t="n">
-        <v>477.6340501576427</v>
+        <v>399.1820776044764</v>
       </c>
       <c r="F14" t="n">
-        <v>477.6340501576427</v>
+        <v>251.4013144695264</v>
       </c>
       <c r="G14" t="n">
-        <v>192.6537309279368</v>
+        <v>251.4013144695264</v>
       </c>
       <c r="H14" t="n">
-        <v>55.25181456101287</v>
+        <v>55.25181456101276</v>
       </c>
       <c r="I14" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J14" t="n">
-        <v>36.10342522626458</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="K14" t="n">
-        <v>36.10342522626458</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="L14" t="n">
-        <v>36.71898932032047</v>
+        <v>598.7848857263998</v>
       </c>
       <c r="M14" t="n">
-        <v>483.4988764953446</v>
+        <v>598.7848857263998</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2787636703687</v>
+        <v>930.2787636703691</v>
       </c>
       <c r="O14" t="n">
-        <v>1334.424833309985</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P14" t="n">
-        <v>1647.196693636562</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q14" t="n">
         <v>1805.171261313229</v>
@@ -5306,22 +5306,22 @@
         <v>1762.146368262229</v>
       </c>
       <c r="T14" t="n">
-        <v>1762.146368262229</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="U14" t="n">
-        <v>1762.146368262229</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="V14" t="n">
-        <v>1762.146368262229</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="W14" t="n">
-        <v>1762.146368262229</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="X14" t="n">
-        <v>1762.146368262229</v>
+        <v>1419.431979849461</v>
       </c>
       <c r="Y14" t="n">
-        <v>1499.127816872358</v>
+        <v>1156.41342845959</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>618.3675429883523</v>
+        <v>380.9557985301853</v>
       </c>
       <c r="C15" t="n">
-        <v>456.663870229307</v>
+        <v>349.7754298054315</v>
       </c>
       <c r="D15" t="n">
-        <v>317.825233219519</v>
+        <v>210.9367927956436</v>
       </c>
       <c r="E15" t="n">
-        <v>170.7972232763902</v>
+        <v>194.4320868868063</v>
       </c>
       <c r="F15" t="n">
-        <v>36.10342522626458</v>
+        <v>190.2615928709722</v>
       </c>
       <c r="G15" t="n">
-        <v>36.10342522626458</v>
+        <v>190.2615928709722</v>
       </c>
       <c r="H15" t="n">
-        <v>36.10342522626458</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I15" t="n">
         <v>36.10342522626458</v>
@@ -5358,49 +5358,49 @@
         <v>126.102135052085</v>
       </c>
       <c r="K15" t="n">
-        <v>406.4308839238592</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L15" t="n">
-        <v>840.610957857998</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="M15" t="n">
-        <v>840.610957857998</v>
+        <v>996.1766675899487</v>
       </c>
       <c r="N15" t="n">
-        <v>840.610957857998</v>
+        <v>996.1766675899487</v>
       </c>
       <c r="O15" t="n">
-        <v>1244.997107790243</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="P15" t="n">
-        <v>1607.2118143385</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q15" t="n">
         <v>1805.171261313229</v>
       </c>
       <c r="R15" t="n">
-        <v>1799.063806513983</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S15" t="n">
-        <v>1652.230889823877</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T15" t="n">
-        <v>1464.840538788701</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="U15" t="n">
-        <v>1246.366879457722</v>
+        <v>1212.634048616733</v>
       </c>
       <c r="V15" t="n">
-        <v>1017.971256906056</v>
+        <v>984.2384260650665</v>
       </c>
       <c r="W15" t="n">
-        <v>907.1786921736571</v>
+        <v>800.2902517497813</v>
       </c>
       <c r="X15" t="n">
-        <v>839.785008085743</v>
+        <v>602.3732636275759</v>
       </c>
       <c r="Y15" t="n">
-        <v>777.7869857696132</v>
+        <v>409.8519372771547</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.3509679716726</v>
+        <v>211.3509679716718</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676443</v>
+        <v>172.2583024676436</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296984</v>
+        <v>149.7097133296978</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253086</v>
+        <v>128.2240031253081</v>
       </c>
       <c r="F16" t="n">
-        <v>106.2666521853771</v>
+        <v>106.2666521853767</v>
       </c>
       <c r="G16" t="n">
-        <v>68.13950988749644</v>
+        <v>68.13950988749622</v>
       </c>
       <c r="H16" t="n">
-        <v>41.68451096813862</v>
+        <v>41.68451096813851</v>
       </c>
       <c r="I16" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8279990958396</v>
+        <v>123.8279990958397</v>
       </c>
       <c r="K16" t="n">
-        <v>188.0975858785158</v>
+        <v>188.0975858785159</v>
       </c>
       <c r="L16" t="n">
-        <v>424.9095462282315</v>
+        <v>424.9095462282296</v>
       </c>
       <c r="M16" t="n">
-        <v>584.2773462222495</v>
+        <v>584.2773462222476</v>
       </c>
       <c r="N16" t="n">
-        <v>743.0901936062166</v>
+        <v>743.0901936062147</v>
       </c>
       <c r="O16" t="n">
-        <v>878.8610094480201</v>
+        <v>878.8610094480182</v>
       </c>
       <c r="P16" t="n">
-        <v>973.75222156442</v>
+        <v>973.7522215644181</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.009306047126</v>
+        <v>1086.009306047124</v>
       </c>
       <c r="R16" t="n">
-        <v>1079.119639383896</v>
+        <v>1079.119639383894</v>
       </c>
       <c r="S16" t="n">
-        <v>1000.626385449673</v>
+        <v>1000.626385449671</v>
       </c>
       <c r="T16" t="n">
-        <v>899.1213915813673</v>
+        <v>899.1213915813659</v>
       </c>
       <c r="U16" t="n">
-        <v>742.469145321121</v>
+        <v>742.4691453211196</v>
       </c>
       <c r="V16" t="n">
-        <v>612.257144913835</v>
+        <v>612.2571449138337</v>
       </c>
       <c r="W16" t="n">
-        <v>456.6240474655255</v>
+        <v>456.6240474655243</v>
       </c>
       <c r="X16" t="n">
-        <v>355.8948873951926</v>
+        <v>355.8948873951916</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217611</v>
+        <v>264.3830326217602</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.58935043969</v>
+        <v>1011.589350439691</v>
       </c>
       <c r="C17" t="n">
-        <v>851.3864477753419</v>
+        <v>851.3864477753432</v>
       </c>
       <c r="D17" t="n">
-        <v>700.2933390054102</v>
+        <v>700.2933390054113</v>
       </c>
       <c r="E17" t="n">
-        <v>527.238475114362</v>
+        <v>527.2384751143628</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273771</v>
+        <v>334.8181404273778</v>
       </c>
       <c r="G17" t="n">
         <v>141.0453731662251</v>
@@ -5522,16 +5522,16 @@
         <v>598.7848857263998</v>
       </c>
       <c r="M17" t="n">
-        <v>1045.564772901424</v>
+        <v>598.7848857263998</v>
       </c>
       <c r="N17" t="n">
-        <v>1243.050623996946</v>
+        <v>930.2787636703691</v>
       </c>
       <c r="O17" t="n">
-        <v>1647.196693636562</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P17" t="n">
-        <v>1647.196693636562</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q17" t="n">
         <v>1805.171261313229</v>
@@ -5549,16 +5549,16 @@
         <v>1772.064810092613</v>
       </c>
       <c r="V17" t="n">
-        <v>1656.816391991398</v>
+        <v>1656.816391991399</v>
       </c>
       <c r="W17" t="n">
-        <v>1516.012317851844</v>
+        <v>1516.012317851845</v>
       </c>
       <c r="X17" t="n">
         <v>1355.713033376182</v>
       </c>
       <c r="Y17" t="n">
-        <v>1183.902033954864</v>
+        <v>1183.902033954865</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>539.8745938609251</v>
+        <v>642.3937925028781</v>
       </c>
       <c r="C18" t="n">
-        <v>539.8745938609251</v>
+        <v>642.3937925028781</v>
       </c>
       <c r="D18" t="n">
-        <v>401.0359568511371</v>
+        <v>503.5551554930902</v>
       </c>
       <c r="E18" t="n">
-        <v>254.0079469080084</v>
+        <v>356.5271455499615</v>
       </c>
       <c r="F18" t="n">
-        <v>119.3141488578827</v>
+        <v>221.8333474998358</v>
       </c>
       <c r="G18" t="n">
-        <v>119.3141488578827</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="H18" t="n">
-        <v>93.42607019791397</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I18" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J18" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K18" t="n">
-        <v>316.4321740980387</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L18" t="n">
-        <v>316.4321740980387</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="M18" t="n">
-        <v>351.4373334401951</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="N18" t="n">
-        <v>798.2172206152192</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="O18" t="n">
-        <v>1244.997107790243</v>
+        <v>1287.390845033022</v>
       </c>
       <c r="P18" t="n">
-        <v>1607.2118143385</v>
+        <v>1649.605551581278</v>
       </c>
       <c r="Q18" t="n">
         <v>1805.171261313229</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.330975672993</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S18" t="n">
-        <v>1618.498058982887</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T18" t="n">
-        <v>1618.498058982887</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="U18" t="n">
-        <v>1400.024399651908</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="V18" t="n">
-        <v>1171.628777100242</v>
+        <v>1202.712085396046</v>
       </c>
       <c r="W18" t="n">
-        <v>930.3129083335517</v>
+        <v>961.3962166293562</v>
       </c>
       <c r="X18" t="n">
-        <v>732.3959202113463</v>
+        <v>763.4792285071508</v>
       </c>
       <c r="Y18" t="n">
-        <v>539.8745938609251</v>
+        <v>763.4792285071508</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172.20781500243</v>
+        <v>523.2755771057004</v>
       </c>
       <c r="C19" t="n">
-        <v>172.20781500243</v>
+        <v>523.2755771057004</v>
       </c>
       <c r="D19" t="n">
-        <v>172.20781500243</v>
+        <v>370.2036839334631</v>
       </c>
       <c r="E19" t="n">
-        <v>172.20781500243</v>
+        <v>370.2036839334631</v>
       </c>
       <c r="F19" t="n">
-        <v>172.20781500243</v>
+        <v>370.2036839334631</v>
       </c>
       <c r="G19" t="n">
-        <v>172.20781500243</v>
+        <v>370.2036839334631</v>
       </c>
       <c r="H19" t="n">
-        <v>172.20781500243</v>
+        <v>213.225380979814</v>
       </c>
       <c r="I19" t="n">
-        <v>36.10342522626458</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="J19" t="n">
         <v>36.10342522626458</v>
@@ -5677,7 +5677,7 @@
         <v>100.3730120089408</v>
       </c>
       <c r="L19" t="n">
-        <v>240.2212444505141</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M19" t="n">
         <v>399.5890444445321</v>
@@ -5686,37 +5686,37 @@
         <v>558.4018918284992</v>
       </c>
       <c r="O19" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703027</v>
       </c>
       <c r="P19" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="Q19" t="n">
-        <v>789.0639197867026</v>
+        <v>773.0769737594569</v>
       </c>
       <c r="R19" t="n">
-        <v>789.0639197867026</v>
+        <v>773.0769737594569</v>
       </c>
       <c r="S19" t="n">
-        <v>582.9367120218672</v>
+        <v>773.0769737594569</v>
       </c>
       <c r="T19" t="n">
-        <v>572.6392701221147</v>
+        <v>762.7795318597044</v>
       </c>
       <c r="U19" t="n">
-        <v>507.1945758304216</v>
+        <v>697.3348375680114</v>
       </c>
       <c r="V19" t="n">
-        <v>468.1901273916889</v>
+        <v>597.5270334921146</v>
       </c>
       <c r="W19" t="n">
-        <v>403.7645819119326</v>
+        <v>533.1014880123583</v>
       </c>
       <c r="X19" t="n">
-        <v>172.5121178073083</v>
+        <v>523.5798799105787</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.20781500243</v>
+        <v>523.2755771057004</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1011.58935043969</v>
+        <v>1011.589350439691</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3864477753419</v>
+        <v>851.3864477753423</v>
       </c>
       <c r="D20" t="n">
-        <v>700.2933390054102</v>
+        <v>700.2933390054113</v>
       </c>
       <c r="E20" t="n">
-        <v>527.2384751143618</v>
+        <v>527.2384751143628</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8181404273769</v>
+        <v>334.8181404273778</v>
       </c>
       <c r="G20" t="n">
-        <v>141.045373166225</v>
+        <v>141.0453731662251</v>
       </c>
       <c r="H20" t="n">
         <v>36.10342522626458</v>
@@ -5753,22 +5753,22 @@
         <v>158.0430464355079</v>
       </c>
       <c r="K20" t="n">
-        <v>473.0321469193355</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="L20" t="n">
-        <v>473.0321469193355</v>
+        <v>349.4908496468979</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4988764953446</v>
+        <v>796.2707368219221</v>
       </c>
       <c r="N20" t="n">
-        <v>930.2787636703687</v>
+        <v>1243.050623996946</v>
       </c>
       <c r="O20" t="n">
-        <v>1334.424833309985</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="P20" t="n">
-        <v>1647.196693636562</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q20" t="n">
         <v>1805.171261313229</v>
@@ -5786,7 +5786,7 @@
         <v>1772.064810092613</v>
       </c>
       <c r="V20" t="n">
-        <v>1656.816391991398</v>
+        <v>1656.816391991399</v>
       </c>
       <c r="W20" t="n">
         <v>1516.012317851844</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>558.3713760655742</v>
+        <v>592.2013052328075</v>
       </c>
       <c r="C21" t="n">
-        <v>558.3713760655742</v>
+        <v>592.2013052328075</v>
       </c>
       <c r="D21" t="n">
-        <v>419.5327390557862</v>
+        <v>453.3626682230196</v>
       </c>
       <c r="E21" t="n">
-        <v>272.5047291126575</v>
+        <v>453.3626682230196</v>
       </c>
       <c r="F21" t="n">
-        <v>137.8109310625318</v>
+        <v>318.6688701728939</v>
       </c>
       <c r="G21" t="n">
-        <v>93.42607019791397</v>
+        <v>190.2615928709722</v>
       </c>
       <c r="H21" t="n">
-        <v>93.42607019791397</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I21" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J21" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K21" t="n">
-        <v>316.4321740980387</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L21" t="n">
-        <v>464.8315997881566</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="M21" t="n">
-        <v>911.6114869631807</v>
+        <v>996.1766675899487</v>
       </c>
       <c r="N21" t="n">
-        <v>1358.391374138205</v>
+        <v>996.1766675899487</v>
       </c>
       <c r="O21" t="n">
-        <v>1805.171261313229</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="P21" t="n">
         <v>1805.171261313229</v>
@@ -5853,10 +5853,10 @@
         <v>1805.171261313229</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.330975672993</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S21" t="n">
-        <v>1765.330975672993</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="T21" t="n">
         <v>1577.940624637818</v>
@@ -5871,10 +5871,10 @@
         <v>1108.229133319462</v>
       </c>
       <c r="X21" t="n">
-        <v>910.3121451972562</v>
+        <v>910.3121451972567</v>
       </c>
       <c r="Y21" t="n">
-        <v>717.790818846835</v>
+        <v>751.6207480140683</v>
       </c>
     </row>
     <row r="22">
@@ -5914,7 +5914,7 @@
         <v>100.3730120089408</v>
       </c>
       <c r="L22" t="n">
-        <v>240.2212444505141</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M22" t="n">
         <v>399.5890444445321</v>
@@ -5923,34 +5923,34 @@
         <v>558.4018918284992</v>
       </c>
       <c r="O22" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703027</v>
       </c>
       <c r="P22" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="Q22" t="n">
-        <v>789.0639197867026</v>
+        <v>773.0769737594569</v>
       </c>
       <c r="R22" t="n">
-        <v>651.6509490891817</v>
+        <v>635.664003061936</v>
       </c>
       <c r="S22" t="n">
-        <v>446.8323222457016</v>
+        <v>446.8323222457017</v>
       </c>
       <c r="T22" t="n">
-        <v>436.5348803459491</v>
+        <v>214.8040243431046</v>
       </c>
       <c r="U22" t="n">
-        <v>371.0901860542561</v>
+        <v>149.3593300514116</v>
       </c>
       <c r="V22" t="n">
-        <v>332.0857376155233</v>
+        <v>110.3548816126788</v>
       </c>
       <c r="W22" t="n">
-        <v>267.6601921357671</v>
+        <v>45.9293361329225</v>
       </c>
       <c r="X22" t="n">
-        <v>258.1385840339875</v>
+        <v>36.40772803114288</v>
       </c>
       <c r="Y22" t="n">
         <v>36.10342522626458</v>
@@ -5966,46 +5966,46 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C23" t="n">
-        <v>851.386447775343</v>
+        <v>851.3864477753428</v>
       </c>
       <c r="D23" t="n">
-        <v>700.2933390054112</v>
+        <v>700.293339005411</v>
       </c>
       <c r="E23" t="n">
-        <v>527.2384751143627</v>
+        <v>527.2384751143625</v>
       </c>
       <c r="F23" t="n">
-        <v>334.8181404273777</v>
+        <v>334.8181404273774</v>
       </c>
       <c r="G23" t="n">
-        <v>141.045373166225</v>
+        <v>141.0453731662248</v>
       </c>
       <c r="H23" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626431</v>
       </c>
       <c r="I23" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J23" t="n">
-        <v>36.10342522626458</v>
+        <v>40.53979704720263</v>
       </c>
       <c r="K23" t="n">
-        <v>36.10342522626458</v>
+        <v>355.5288975310302</v>
       </c>
       <c r="L23" t="n">
-        <v>476.8452645171565</v>
+        <v>796.2707368219221</v>
       </c>
       <c r="M23" t="n">
-        <v>641.4734441720108</v>
+        <v>1243.050623996946</v>
       </c>
       <c r="N23" t="n">
-        <v>1088.253331347035</v>
+        <v>1243.050623996946</v>
       </c>
       <c r="O23" t="n">
-        <v>1492.399400986651</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="P23" t="n">
-        <v>1805.171261313229</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q23" t="n">
         <v>1805.171261313229</v>
@@ -6032,7 +6032,7 @@
         <v>1355.713033376183</v>
       </c>
       <c r="Y23" t="n">
-        <v>1183.902033954866</v>
+        <v>1183.902033954865</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.0648000444885</v>
+        <v>696.5823330202035</v>
       </c>
       <c r="C24" t="n">
-        <v>93.42607019791397</v>
+        <v>534.8786602611582</v>
       </c>
       <c r="D24" t="n">
-        <v>93.42607019791397</v>
+        <v>396.0400232513703</v>
       </c>
       <c r="E24" t="n">
-        <v>93.42607019791397</v>
+        <v>396.0400232513703</v>
       </c>
       <c r="F24" t="n">
-        <v>93.42607019791397</v>
+        <v>261.3462252012446</v>
       </c>
       <c r="G24" t="n">
-        <v>93.42607019791397</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="H24" t="n">
-        <v>93.42607019791397</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I24" t="n">
         <v>36.10342522626458</v>
@@ -6069,19 +6069,19 @@
         <v>126.102135052085</v>
       </c>
       <c r="K24" t="n">
-        <v>406.4308839238592</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L24" t="n">
-        <v>840.610957857998</v>
+        <v>798.2172206152195</v>
       </c>
       <c r="M24" t="n">
-        <v>1160.431927163475</v>
+        <v>798.2172206152195</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.431927163475</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="O24" t="n">
-        <v>1607.2118143385</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P24" t="n">
         <v>1607.2118143385</v>
@@ -6090,28 +6090,28 @@
         <v>1805.171261313229</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.330975672993</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S24" t="n">
-        <v>1618.498058982887</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T24" t="n">
         <v>1431.107707947712</v>
       </c>
       <c r="U24" t="n">
-        <v>1212.634048616732</v>
+        <v>1212.634048616733</v>
       </c>
       <c r="V24" t="n">
-        <v>984.2384260650661</v>
+        <v>1205.969282067911</v>
       </c>
       <c r="W24" t="n">
-        <v>742.9225572983761</v>
+        <v>1053.91876392367</v>
       </c>
       <c r="X24" t="n">
-        <v>545.0055691761706</v>
+        <v>856.0017758014644</v>
       </c>
       <c r="Y24" t="n">
-        <v>352.4842428257494</v>
+        <v>856.0017758014644</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.0992941572977</v>
+        <v>156.6041667644207</v>
       </c>
       <c r="C25" t="n">
-        <v>234.0992941572977</v>
+        <v>156.6041667644207</v>
       </c>
       <c r="D25" t="n">
-        <v>234.0992941572977</v>
+        <v>156.6041667644207</v>
       </c>
       <c r="E25" t="n">
-        <v>234.0992941572977</v>
+        <v>156.6041667644207</v>
       </c>
       <c r="F25" t="n">
-        <v>234.0992941572977</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="G25" t="n">
-        <v>234.0992941572977</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="H25" t="n">
-        <v>77.1209912036485</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="I25" t="n">
-        <v>77.1209912036485</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="J25" t="n">
         <v>36.10342522626458</v>
@@ -6151,7 +6151,7 @@
         <v>100.3730120089408</v>
       </c>
       <c r="L25" t="n">
-        <v>240.2212444505141</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M25" t="n">
         <v>399.5890444445321</v>
@@ -6160,37 +6160,37 @@
         <v>558.4018918284992</v>
       </c>
       <c r="O25" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703027</v>
       </c>
       <c r="P25" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="Q25" t="n">
-        <v>773.0769737594571</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="R25" t="n">
-        <v>635.6640030619362</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="S25" t="n">
-        <v>635.6640030619362</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="T25" t="n">
-        <v>412.7998932741376</v>
+        <v>778.76647788695</v>
       </c>
       <c r="U25" t="n">
-        <v>347.3551989824446</v>
+        <v>491.5909275924124</v>
       </c>
       <c r="V25" t="n">
-        <v>308.3507505437118</v>
+        <v>230.855623150835</v>
       </c>
       <c r="W25" t="n">
-        <v>243.9252050639556</v>
+        <v>166.4300776710787</v>
       </c>
       <c r="X25" t="n">
-        <v>234.403596962176</v>
+        <v>156.908469569299</v>
       </c>
       <c r="Y25" t="n">
-        <v>234.0992941572977</v>
+        <v>156.6041667644207</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1808.955690151401</v>
+        <v>1808.955690151402</v>
       </c>
       <c r="C26" t="n">
-        <v>1529.41733654716</v>
+        <v>1529.417336547161</v>
       </c>
       <c r="D26" t="n">
         <v>1258.988776837336</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063941</v>
+        <v>966.598462006395</v>
       </c>
       <c r="F26" t="n">
-        <v>654.8426763795163</v>
+        <v>654.8426763795172</v>
       </c>
       <c r="G26" t="n">
-        <v>341.734458178471</v>
+        <v>341.7344581784719</v>
       </c>
       <c r="H26" t="n">
         <v>117.4570592986184</v>
       </c>
       <c r="I26" t="n">
-        <v>70.18077099253057</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J26" t="n">
         <v>292.478128703973</v>
       </c>
       <c r="K26" t="n">
-        <v>707.8249656899998</v>
+        <v>707.8249656899995</v>
       </c>
       <c r="L26" t="n">
         <v>1248.924541483091</v>
@@ -6236,40 +6236,40 @@
         <v>1745.48441791589</v>
       </c>
       <c r="N26" t="n">
-        <v>2284.587600719314</v>
+        <v>2284.587600719316</v>
       </c>
       <c r="O26" t="n">
-        <v>2789.09140686113</v>
+        <v>2789.091406861131</v>
       </c>
       <c r="P26" t="n">
-        <v>3202.221003689906</v>
+        <v>3202.221003689908</v>
       </c>
       <c r="Q26" t="n">
-        <v>3460.553307868771</v>
+        <v>3460.553307868773</v>
       </c>
       <c r="R26" t="n">
-        <v>3509.038549626528</v>
+        <v>3509.03854962653</v>
       </c>
       <c r="S26" t="n">
-        <v>3437.885757604188</v>
+        <v>3437.88575760419</v>
       </c>
       <c r="T26" t="n">
-        <v>3318.550306664295</v>
+        <v>3318.550306664297</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.108404503787</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V26" t="n">
-        <v>2931.52453546268</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W26" t="n">
-        <v>2671.385010383233</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X26" t="n">
-        <v>2391.750274967678</v>
+        <v>2391.75027496768</v>
       </c>
       <c r="Y26" t="n">
-        <v>2100.603824606468</v>
+        <v>2100.603824606469</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F27" t="n">
-        <v>352.7462159391599</v>
+        <v>352.74621593916</v>
       </c>
       <c r="G27" t="n">
-        <v>224.3389386372381</v>
+        <v>224.3389386372382</v>
       </c>
       <c r="H27" t="n">
         <v>127.50341596418</v>
       </c>
       <c r="I27" t="n">
-        <v>70.18077099253057</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J27" t="n">
         <v>160.179480818351</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>442.3236065373152</v>
+        <v>442.3236065373155</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1030420619473</v>
+        <v>375.1030420619476</v>
       </c>
       <c r="D28" t="n">
-        <v>324.4265539526619</v>
+        <v>324.4265539526621</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8129447769327</v>
+        <v>274.8129447769328</v>
       </c>
       <c r="F28" t="n">
-        <v>224.7276948656616</v>
+        <v>224.7276948656617</v>
       </c>
       <c r="G28" t="n">
         <v>158.4726535964415</v>
       </c>
       <c r="H28" t="n">
-        <v>103.8897557057441</v>
+        <v>103.8897557057442</v>
       </c>
       <c r="I28" t="n">
-        <v>70.18077099253057</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="J28" t="n">
         <v>130.3371910802957</v>
@@ -6388,16 +6388,16 @@
         <v>294.9645143651711</v>
       </c>
       <c r="L28" t="n">
-        <v>535.1704833089435</v>
+        <v>535.1704833089434</v>
       </c>
       <c r="M28" t="n">
-        <v>794.8960198051607</v>
+        <v>794.8960198051606</v>
       </c>
       <c r="N28" t="n">
         <v>1054.066603691327</v>
       </c>
       <c r="O28" t="n">
-        <v>1290.19515603533</v>
+        <v>1290.195156035329</v>
       </c>
       <c r="P28" t="n">
         <v>1485.444104653928</v>
@@ -6406,28 +6406,28 @@
         <v>1570.133035354824</v>
       </c>
       <c r="R28" t="n">
-        <v>1535.115469720254</v>
+        <v>1535.115469720255</v>
       </c>
       <c r="S28" t="n">
-        <v>1428.494316814692</v>
+        <v>1428.494316814693</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.861423975047</v>
+        <v>1298.861423975048</v>
       </c>
       <c r="U28" t="n">
-        <v>1114.081278743461</v>
+        <v>1114.081278743462</v>
       </c>
       <c r="V28" t="n">
-        <v>955.7413793648358</v>
+        <v>955.7413793648359</v>
       </c>
       <c r="W28" t="n">
-        <v>771.9803829451866</v>
+        <v>771.9803829451869</v>
       </c>
       <c r="X28" t="n">
-        <v>643.1233239035142</v>
+        <v>643.1233239035145</v>
       </c>
       <c r="Y28" t="n">
-        <v>523.4835701587432</v>
+        <v>523.4835701587434</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>1808.955690151402</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.417336547161</v>
+        <v>1529.417336547162</v>
       </c>
       <c r="D29" t="n">
-        <v>1258.988776837336</v>
+        <v>1258.988776837337</v>
       </c>
       <c r="E29" t="n">
-        <v>966.598462006395</v>
+        <v>966.5984620063956</v>
       </c>
       <c r="F29" t="n">
-        <v>654.8426763795173</v>
+        <v>654.8426763795176</v>
       </c>
       <c r="G29" t="n">
-        <v>341.734458178472</v>
+        <v>341.7344581784716</v>
       </c>
       <c r="H29" t="n">
         <v>117.4570592986184</v>
       </c>
       <c r="I29" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J29" t="n">
         <v>292.478128703973</v>
       </c>
       <c r="K29" t="n">
-        <v>707.8249656899998</v>
+        <v>707.8249656899997</v>
       </c>
       <c r="L29" t="n">
-        <v>1148.566804980892</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M29" t="n">
-        <v>1700.905958240505</v>
+        <v>1801.263694742705</v>
       </c>
       <c r="N29" t="n">
         <v>2284.587600719316</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.091406861131</v>
+        <v>2789.091406861132</v>
       </c>
       <c r="P29" t="n">
         <v>3202.221003689908</v>
       </c>
       <c r="Q29" t="n">
-        <v>3460.553307868773</v>
+        <v>3460.553307868774</v>
       </c>
       <c r="R29" t="n">
         <v>3509.03854962653</v>
       </c>
       <c r="S29" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604191</v>
       </c>
       <c r="T29" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664298</v>
       </c>
       <c r="U29" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503789</v>
       </c>
       <c r="V29" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.524535462682</v>
       </c>
       <c r="W29" t="n">
-        <v>2671.385010383234</v>
+        <v>2671.385010383235</v>
       </c>
       <c r="X29" t="n">
         <v>2391.75027496768</v>
       </c>
       <c r="Y29" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.60382460647</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>127.50341596418</v>
       </c>
       <c r="I30" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J30" t="n">
-        <v>160.179480818351</v>
+        <v>160.1794808183511</v>
       </c>
       <c r="K30" t="n">
         <v>440.5082296901252</v>
       </c>
       <c r="L30" t="n">
-        <v>440.5082296901252</v>
+        <v>874.6883036242639</v>
       </c>
       <c r="M30" t="n">
-        <v>1005.312411918615</v>
+        <v>1439.492485852753</v>
       </c>
       <c r="N30" t="n">
-        <v>1598.460183230663</v>
+        <v>1519.836543086607</v>
       </c>
       <c r="O30" t="n">
         <v>1986.942641447002</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>442.3236065373152</v>
+        <v>442.3236065373158</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1030420619473</v>
+        <v>375.1030420619479</v>
       </c>
       <c r="D31" t="n">
-        <v>324.4265539526619</v>
+        <v>324.4265539526624</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8129447769327</v>
+        <v>274.8129447769331</v>
       </c>
       <c r="F31" t="n">
-        <v>224.7276948656616</v>
+        <v>224.727694865662</v>
       </c>
       <c r="G31" t="n">
-        <v>158.4726535964415</v>
+        <v>158.4726535964419</v>
       </c>
       <c r="H31" t="n">
         <v>103.8897557057442</v>
       </c>
       <c r="I31" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3371910802953</v>
+        <v>130.3371910802957</v>
       </c>
       <c r="K31" t="n">
-        <v>294.9645143651707</v>
+        <v>294.9645143651711</v>
       </c>
       <c r="L31" t="n">
-        <v>535.1704833089431</v>
+        <v>535.1704833089434</v>
       </c>
       <c r="M31" t="n">
-        <v>794.8960198051602</v>
+        <v>794.8960198051603</v>
       </c>
       <c r="N31" t="n">
         <v>1054.066603691326</v>
@@ -6646,25 +6646,25 @@
         <v>1535.115469720255</v>
       </c>
       <c r="S31" t="n">
-        <v>1428.494316814692</v>
+        <v>1428.494316814693</v>
       </c>
       <c r="T31" t="n">
         <v>1298.861423975047</v>
       </c>
       <c r="U31" t="n">
-        <v>1114.081278743461</v>
+        <v>1114.081278743462</v>
       </c>
       <c r="V31" t="n">
-        <v>955.7413793648357</v>
+        <v>955.7413793648365</v>
       </c>
       <c r="W31" t="n">
-        <v>771.9803829451866</v>
+        <v>771.9803829451874</v>
       </c>
       <c r="X31" t="n">
-        <v>643.1233239035142</v>
+        <v>643.123323903515</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.4835701587432</v>
+        <v>523.4835701587438</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6689,13 @@
         <v>654.8426763795169</v>
       </c>
       <c r="G32" t="n">
-        <v>341.734458178471</v>
+        <v>341.7344581784716</v>
       </c>
       <c r="H32" t="n">
         <v>117.4570592986184</v>
       </c>
       <c r="I32" t="n">
-        <v>70.18077099253058</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J32" t="n">
         <v>292.478128703973</v>
@@ -6707,37 +6707,37 @@
         <v>1248.924541483091</v>
       </c>
       <c r="M32" t="n">
-        <v>1845.842154418089</v>
+        <v>1745.48441791589</v>
       </c>
       <c r="N32" t="n">
-        <v>2429.5237968969</v>
+        <v>2329.1660603947</v>
       </c>
       <c r="O32" t="n">
-        <v>2934.027603038715</v>
+        <v>2833.669866536516</v>
       </c>
       <c r="P32" t="n">
-        <v>3302.578740192106</v>
+        <v>3202.221003689908</v>
       </c>
       <c r="Q32" t="n">
-        <v>3460.553307868772</v>
+        <v>3460.553307868774</v>
       </c>
       <c r="R32" t="n">
-        <v>3509.038549626529</v>
+        <v>3509.03854962653</v>
       </c>
       <c r="S32" t="n">
-        <v>3437.885757604189</v>
+        <v>3437.885757604191</v>
       </c>
       <c r="T32" t="n">
-        <v>3318.550306664296</v>
+        <v>3318.550306664298</v>
       </c>
       <c r="U32" t="n">
-        <v>3166.108404503787</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V32" t="n">
-        <v>2931.52453546268</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W32" t="n">
-        <v>2671.385010383233</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X32" t="n">
         <v>2391.750274967679</v>
@@ -6765,7 +6765,7 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F33" t="n">
-        <v>352.7462159391599</v>
+        <v>352.74621593916</v>
       </c>
       <c r="G33" t="n">
         <v>224.3389386372382</v>
@@ -6774,28 +6774,28 @@
         <v>127.50341596418</v>
       </c>
       <c r="I33" t="n">
-        <v>70.18077099253058</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J33" t="n">
-        <v>70.18077099253058</v>
+        <v>125.6639625866601</v>
       </c>
       <c r="K33" t="n">
-        <v>70.18077099253058</v>
+        <v>125.6639625866601</v>
       </c>
       <c r="L33" t="n">
-        <v>504.3608449266694</v>
+        <v>559.8440365207989</v>
       </c>
       <c r="M33" t="n">
-        <v>1069.165027155159</v>
+        <v>1124.648218749288</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.312798467207</v>
+        <v>1717.795990061337</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.418896827602</v>
+        <v>2184.902088421732</v>
       </c>
       <c r="P33" t="n">
-        <v>2491.633603375858</v>
+        <v>2547.116794969988</v>
       </c>
       <c r="Q33" t="n">
         <v>2547.116794969988</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.3236065373153</v>
+        <v>442.3236065373155</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619474</v>
+        <v>375.1030420619476</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526619</v>
+        <v>324.4265539526622</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8129447769326</v>
+        <v>274.8129447769329</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656616</v>
+        <v>224.7276948656618</v>
       </c>
       <c r="G34" t="n">
-        <v>158.4726535964414</v>
+        <v>158.4726535964417</v>
       </c>
       <c r="H34" t="n">
-        <v>103.8897557057442</v>
+        <v>103.8897557057443</v>
       </c>
       <c r="I34" t="n">
-        <v>70.18077099253058</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J34" t="n">
         <v>130.3371910802957</v>
@@ -6862,16 +6862,16 @@
         <v>294.9645143651711</v>
       </c>
       <c r="L34" t="n">
-        <v>535.1704833089434</v>
+        <v>535.1704833089435</v>
       </c>
       <c r="M34" t="n">
-        <v>794.8960198051604</v>
+        <v>794.8960198051607</v>
       </c>
       <c r="N34" t="n">
         <v>1054.066603691327</v>
       </c>
       <c r="O34" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.19515603533</v>
       </c>
       <c r="P34" t="n">
         <v>1485.444104653928</v>
@@ -6886,22 +6886,22 @@
         <v>1428.494316814692</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.861423975047</v>
+        <v>1298.861423975048</v>
       </c>
       <c r="U34" t="n">
         <v>1114.081278743462</v>
       </c>
       <c r="V34" t="n">
-        <v>955.741379364836</v>
+        <v>955.7413793648362</v>
       </c>
       <c r="W34" t="n">
-        <v>771.980382945187</v>
+        <v>771.9803829451872</v>
       </c>
       <c r="X34" t="n">
-        <v>643.1233239035143</v>
+        <v>643.1233239035146</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.4835701587433</v>
+        <v>523.4835701587435</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477639</v>
       </c>
       <c r="C35" t="n">
         <v>1135.850896898431</v>
       </c>
       <c r="D35" t="n">
-        <v>930.754156213639</v>
+        <v>930.7541562136383</v>
       </c>
       <c r="E35" t="n">
-        <v>703.6956604077302</v>
+        <v>703.6956604077295</v>
       </c>
       <c r="F35" t="n">
-        <v>457.271693805885</v>
+        <v>457.2716938058842</v>
       </c>
       <c r="G35" t="n">
-        <v>209.4952946298709</v>
+        <v>209.495294629871</v>
       </c>
       <c r="H35" t="n">
         <v>50.54971477505016</v>
@@ -6935,22 +6935,22 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J35" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K35" t="n">
-        <v>365.5388152588778</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L35" t="n">
-        <v>806.2806545497697</v>
+        <v>928.220275759013</v>
       </c>
       <c r="M35" t="n">
-        <v>1302.840530982569</v>
+        <v>1424.780152191812</v>
       </c>
       <c r="N35" t="n">
-        <v>1652.593241109647</v>
+        <v>1908.104058168423</v>
       </c>
       <c r="O35" t="n">
-        <v>2056.739310749264</v>
+        <v>2312.25012780804</v>
       </c>
       <c r="P35" t="n">
         <v>2369.511171075842</v>
@@ -7005,10 +7005,10 @@
         <v>333.1151597216798</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7078824197577</v>
+        <v>204.7078824197579</v>
       </c>
       <c r="H36" t="n">
-        <v>107.8723597466995</v>
+        <v>107.8723597466996</v>
       </c>
       <c r="I36" t="n">
         <v>50.54971477505016</v>
@@ -7017,7 +7017,7 @@
         <v>140.5484246008706</v>
       </c>
       <c r="K36" t="n">
-        <v>420.8771734726448</v>
+        <v>420.8771734726447</v>
       </c>
       <c r="L36" t="n">
         <v>855.0572474067835</v>
@@ -7026,13 +7026,13 @@
         <v>1419.861429635273</v>
       </c>
       <c r="N36" t="n">
-        <v>1967.311585229522</v>
+        <v>1500.205486869128</v>
       </c>
       <c r="O36" t="n">
         <v>1967.311585229522</v>
       </c>
       <c r="P36" t="n">
-        <v>2329.526291777778</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q36" t="n">
         <v>2527.485738752508</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.385952325563</v>
+        <v>189.4660722457387</v>
       </c>
       <c r="C37" t="n">
-        <v>215.4972068752276</v>
+        <v>187.5773267954033</v>
       </c>
       <c r="D37" t="n">
-        <v>215.4972068752276</v>
+        <v>187.5773267954033</v>
       </c>
       <c r="E37" t="n">
-        <v>215.4972068752276</v>
+        <v>187.5773267954033</v>
       </c>
       <c r="F37" t="n">
-        <v>63.01655190100476</v>
+        <v>187.5773267954033</v>
       </c>
       <c r="G37" t="n">
-        <v>50.54971477505016</v>
+        <v>186.6541045512156</v>
       </c>
       <c r="H37" t="n">
-        <v>50.54971477505016</v>
+        <v>186.6541045512156</v>
       </c>
       <c r="I37" t="n">
         <v>50.54971477505016</v>
@@ -7102,43 +7102,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M37" t="n">
-        <v>414.0353339933177</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N37" t="n">
-        <v>572.8481813772848</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O37" t="n">
-        <v>708.6189972190884</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P37" t="n">
-        <v>803.5102093354883</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q37" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R37" t="n">
-        <v>787.5232633082428</v>
+        <v>759.6033832284188</v>
       </c>
       <c r="S37" t="n">
-        <v>746.2339294277128</v>
+        <v>718.3140493478887</v>
       </c>
       <c r="T37" t="n">
-        <v>681.9328556131001</v>
+        <v>654.0129755332759</v>
       </c>
       <c r="U37" t="n">
-        <v>562.4845294065467</v>
+        <v>534.5646493267226</v>
       </c>
       <c r="V37" t="n">
-        <v>469.4764490529536</v>
+        <v>441.5565689731295</v>
       </c>
       <c r="W37" t="n">
-        <v>351.0472716583371</v>
+        <v>323.1273915785129</v>
       </c>
       <c r="X37" t="n">
-        <v>287.5220316416971</v>
+        <v>259.6021515618729</v>
       </c>
       <c r="Y37" t="n">
-        <v>233.2140969219585</v>
+        <v>205.2942168421343</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>930.754156213638</v>
       </c>
       <c r="E38" t="n">
-        <v>703.6956604077292</v>
+        <v>703.6956604077291</v>
       </c>
       <c r="F38" t="n">
         <v>457.2716938058838</v>
@@ -7166,31 +7166,31 @@
         <v>209.495294629871</v>
       </c>
       <c r="H38" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505014</v>
       </c>
       <c r="I38" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505014</v>
       </c>
       <c r="J38" t="n">
-        <v>172.4893359842935</v>
+        <v>172.4893359842934</v>
       </c>
       <c r="K38" t="n">
-        <v>487.4784364681211</v>
+        <v>487.478436468121</v>
       </c>
       <c r="L38" t="n">
-        <v>928.220275759013</v>
+        <v>928.2202757590129</v>
       </c>
       <c r="M38" t="n">
-        <v>1424.780152191812</v>
+        <v>1169.269335133035</v>
       </c>
       <c r="N38" t="n">
-        <v>1908.104058168423</v>
+        <v>1652.593241109647</v>
       </c>
       <c r="O38" t="n">
-        <v>2312.25012780804</v>
+        <v>2056.739310749263</v>
       </c>
       <c r="P38" t="n">
-        <v>2527.485738752507</v>
+        <v>2369.511171075841</v>
       </c>
       <c r="Q38" t="n">
         <v>2527.485738752507</v>
@@ -7199,19 +7199,19 @@
         <v>2527.485738752507</v>
       </c>
       <c r="S38" t="n">
-        <v>2521.664765755199</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T38" t="n">
-        <v>2467.661133840339</v>
+        <v>2467.66113384034</v>
       </c>
       <c r="U38" t="n">
         <v>2380.551050704863</v>
       </c>
       <c r="V38" t="n">
-        <v>2211.299000688788</v>
+        <v>2211.299000688789</v>
       </c>
       <c r="W38" t="n">
-        <v>2016.491294634373</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X38" t="n">
         <v>1802.188378243851</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.3792774837664</v>
+        <v>915.3792774837672</v>
       </c>
       <c r="C39" t="n">
-        <v>753.6756047247211</v>
+        <v>753.6756047247219</v>
       </c>
       <c r="D39" t="n">
-        <v>614.8369677149332</v>
+        <v>614.836967714934</v>
       </c>
       <c r="E39" t="n">
-        <v>467.8089577718044</v>
+        <v>467.8089577718051</v>
       </c>
       <c r="F39" t="n">
-        <v>333.1151597216788</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G39" t="n">
         <v>204.7078824197577</v>
@@ -7248,55 +7248,55 @@
         <v>107.8723597466995</v>
       </c>
       <c r="I39" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505014</v>
       </c>
       <c r="J39" t="n">
-        <v>50.54971477505013</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K39" t="n">
-        <v>50.54971477505013</v>
+        <v>420.8771734726447</v>
       </c>
       <c r="L39" t="n">
-        <v>484.7297887091889</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M39" t="n">
-        <v>1049.533970937679</v>
+        <v>907.0577155570782</v>
       </c>
       <c r="N39" t="n">
-        <v>1642.681742249727</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O39" t="n">
-        <v>2109.787840610122</v>
+        <v>1967.311585229521</v>
       </c>
       <c r="P39" t="n">
-        <v>2329.526291777777</v>
+        <v>2329.526291777778</v>
       </c>
       <c r="Q39" t="n">
         <v>2527.485738752507</v>
       </c>
       <c r="R39" t="n">
-        <v>2487.645453112271</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S39" t="n">
-        <v>2340.812536422165</v>
+        <v>2340.812536422166</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.422185386989</v>
+        <v>2153.42218538699</v>
       </c>
       <c r="U39" t="n">
-        <v>1934.94852605601</v>
+        <v>1934.948526056011</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.552903504344</v>
+        <v>1706.552903504345</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.237034737654</v>
+        <v>1465.237034737655</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.320046615448</v>
+        <v>1267.320046615449</v>
       </c>
       <c r="Y39" t="n">
-        <v>1074.798720265027</v>
+        <v>1074.798720265028</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>205.8423374437962</v>
+        <v>233.3728983528078</v>
       </c>
       <c r="C40" t="n">
-        <v>203.9535919934607</v>
+        <v>231.4841529024723</v>
       </c>
       <c r="D40" t="n">
-        <v>203.9535919934607</v>
+        <v>231.4841529024723</v>
       </c>
       <c r="E40" t="n">
-        <v>203.9535919934607</v>
+        <v>231.4841529024723</v>
       </c>
       <c r="F40" t="n">
-        <v>51.47293701923785</v>
+        <v>231.4841529024723</v>
       </c>
       <c r="G40" t="n">
-        <v>50.54971477505013</v>
+        <v>62.83370657030034</v>
       </c>
       <c r="H40" t="n">
-        <v>50.54971477505013</v>
+        <v>62.83370657030034</v>
       </c>
       <c r="I40" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505014</v>
       </c>
       <c r="J40" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505014</v>
       </c>
       <c r="K40" t="n">
         <v>114.8193015577264</v>
@@ -7351,31 +7351,31 @@
         <v>803.5102093354881</v>
       </c>
       <c r="Q40" t="n">
-        <v>787.5232633082426</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R40" t="n">
-        <v>787.5232633082426</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S40" t="n">
-        <v>746.2339294277125</v>
+        <v>762.220875454958</v>
       </c>
       <c r="T40" t="n">
-        <v>681.9328556130997</v>
+        <v>697.9198016403452</v>
       </c>
       <c r="U40" t="n">
-        <v>562.4845294065464</v>
+        <v>578.4714754337917</v>
       </c>
       <c r="V40" t="n">
-        <v>469.4764490529532</v>
+        <v>485.4633950801986</v>
       </c>
       <c r="W40" t="n">
-        <v>351.0472716583366</v>
+        <v>367.034217685582</v>
       </c>
       <c r="X40" t="n">
-        <v>287.5220316416967</v>
+        <v>303.508977668942</v>
       </c>
       <c r="Y40" t="n">
-        <v>221.6704820401917</v>
+        <v>249.2010429492034</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C41" t="n">
-        <v>1135.85089689843</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D41" t="n">
-        <v>930.754156213638</v>
+        <v>930.7541562136391</v>
       </c>
       <c r="E41" t="n">
-        <v>703.6956604077292</v>
+        <v>703.6956604077302</v>
       </c>
       <c r="F41" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058848</v>
       </c>
       <c r="G41" t="n">
         <v>209.495294629871</v>
       </c>
       <c r="H41" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I41" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J41" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K41" t="n">
-        <v>231.967619409344</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L41" t="n">
-        <v>672.7094587002359</v>
+        <v>806.2806545497697</v>
       </c>
       <c r="M41" t="n">
-        <v>1169.269335133035</v>
+        <v>1302.840530982569</v>
       </c>
       <c r="N41" t="n">
-        <v>1652.593241109646</v>
+        <v>1786.16443695918</v>
       </c>
       <c r="O41" t="n">
-        <v>2056.739310749263</v>
+        <v>2190.310506598797</v>
       </c>
       <c r="P41" t="n">
-        <v>2369.511171075841</v>
+        <v>2503.082366925374</v>
       </c>
       <c r="Q41" t="n">
-        <v>2527.485738752507</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="R41" t="n">
-        <v>2527.485738752507</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="S41" t="n">
-        <v>2521.664765755199</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T41" t="n">
-        <v>2467.661133840339</v>
+        <v>2467.66113384034</v>
       </c>
       <c r="U41" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V41" t="n">
-        <v>2211.299000688788</v>
+        <v>2211.299000688789</v>
       </c>
       <c r="W41" t="n">
-        <v>2016.491294634373</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X41" t="n">
-        <v>1802.188378243851</v>
+        <v>1802.188378243852</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.373746907673</v>
+        <v>1576.373746907675</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.3792774837664</v>
+        <v>915.3792774837674</v>
       </c>
       <c r="C42" t="n">
-        <v>753.6756047247211</v>
+        <v>753.6756047247222</v>
       </c>
       <c r="D42" t="n">
-        <v>614.8369677149332</v>
+        <v>614.8369677149344</v>
       </c>
       <c r="E42" t="n">
-        <v>467.8089577718044</v>
+        <v>467.8089577718056</v>
       </c>
       <c r="F42" t="n">
-        <v>333.1151597216788</v>
+        <v>333.1151597216798</v>
       </c>
       <c r="G42" t="n">
-        <v>204.707882419757</v>
+        <v>204.7078824197579</v>
       </c>
       <c r="H42" t="n">
-        <v>107.8723597466988</v>
+        <v>107.8723597466996</v>
       </c>
       <c r="I42" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J42" t="n">
-        <v>50.54971477505013</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K42" t="n">
-        <v>50.54971477505013</v>
+        <v>420.8771734726447</v>
       </c>
       <c r="L42" t="n">
-        <v>342.2535333285879</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M42" t="n">
-        <v>907.0577155570775</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N42" t="n">
-        <v>1500.205486869126</v>
+        <v>1500.205486869128</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.311585229521</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P42" t="n">
-        <v>2329.526291777777</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.485738752507</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="R42" t="n">
-        <v>2487.645453112271</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S42" t="n">
-        <v>2340.812536422165</v>
+        <v>2340.812536422166</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.422185386989</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U42" t="n">
-        <v>1934.94852605601</v>
+        <v>1934.948526056011</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.552903504344</v>
+        <v>1706.552903504345</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.237034737654</v>
+        <v>1465.237034737655</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.320046615448</v>
+        <v>1267.320046615449</v>
       </c>
       <c r="Y42" t="n">
-        <v>1074.798720265027</v>
+        <v>1074.798720265028</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>217.3859523255625</v>
+        <v>94.37924844695729</v>
       </c>
       <c r="C43" t="n">
-        <v>215.4972068752271</v>
+        <v>92.49050299662184</v>
       </c>
       <c r="D43" t="n">
-        <v>215.4972068752271</v>
+        <v>92.49050299662184</v>
       </c>
       <c r="E43" t="n">
-        <v>215.4972068752271</v>
+        <v>92.49050299662184</v>
       </c>
       <c r="F43" t="n">
-        <v>92.49050299662179</v>
+        <v>92.49050299662184</v>
       </c>
       <c r="G43" t="n">
-        <v>91.56728075243406</v>
+        <v>91.56728075243409</v>
       </c>
       <c r="H43" t="n">
-        <v>91.56728075243406</v>
+        <v>91.56728075243409</v>
       </c>
       <c r="I43" t="n">
-        <v>91.56728075243406</v>
+        <v>91.56728075243409</v>
       </c>
       <c r="J43" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K43" t="n">
         <v>114.8193015577264</v>
@@ -7588,31 +7588,31 @@
         <v>803.5102093354881</v>
       </c>
       <c r="Q43" t="n">
-        <v>787.5232633082426</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R43" t="n">
-        <v>787.5232633082426</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S43" t="n">
-        <v>746.2339294277125</v>
+        <v>762.220875454958</v>
       </c>
       <c r="T43" t="n">
-        <v>681.9328556130997</v>
+        <v>558.9261517344946</v>
       </c>
       <c r="U43" t="n">
-        <v>562.4845294065464</v>
+        <v>439.4778255279412</v>
       </c>
       <c r="V43" t="n">
-        <v>469.4764490529532</v>
+        <v>346.4697451743481</v>
       </c>
       <c r="W43" t="n">
-        <v>351.0472716583366</v>
+        <v>228.0405677797315</v>
       </c>
       <c r="X43" t="n">
-        <v>287.5220316416967</v>
+        <v>164.5153277630915</v>
       </c>
       <c r="Y43" t="n">
-        <v>233.2140969219581</v>
+        <v>110.2073930433529</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>1350.057431477639</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.85089689843</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D44" t="n">
-        <v>930.7541562136382</v>
+        <v>930.7541562136385</v>
       </c>
       <c r="E44" t="n">
         <v>703.6956604077293</v>
       </c>
       <c r="F44" t="n">
-        <v>457.2716938058839</v>
+        <v>457.2716938058838</v>
       </c>
       <c r="G44" t="n">
-        <v>209.495294629871</v>
+        <v>209.4952946298711</v>
       </c>
       <c r="H44" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I44" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J44" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K44" t="n">
-        <v>365.5388152588777</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L44" t="n">
         <v>806.2806545497697</v>
@@ -7667,31 +7667,31 @@
         <v>2503.082366925374</v>
       </c>
       <c r="Q44" t="n">
-        <v>2527.485738752507</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="R44" t="n">
-        <v>2527.485738752507</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="S44" t="n">
-        <v>2521.664765755199</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T44" t="n">
-        <v>2467.661133840339</v>
+        <v>2467.66113384034</v>
       </c>
       <c r="U44" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V44" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W44" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X44" t="n">
-        <v>1802.188378243851</v>
+        <v>1802.188378243852</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.373746907673</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="45">
@@ -7710,40 +7710,40 @@
         <v>614.836967714934</v>
       </c>
       <c r="E45" t="n">
-        <v>467.8089577718051</v>
+        <v>467.8089577718052</v>
       </c>
       <c r="F45" t="n">
-        <v>333.1151597216795</v>
+        <v>333.1151597216796</v>
       </c>
       <c r="G45" t="n">
         <v>204.7078824197577</v>
       </c>
       <c r="H45" t="n">
-        <v>107.8723597466995</v>
+        <v>107.8723597466996</v>
       </c>
       <c r="I45" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J45" t="n">
         <v>140.5484246008706</v>
       </c>
       <c r="K45" t="n">
-        <v>420.8771734726448</v>
+        <v>420.8771734726447</v>
       </c>
       <c r="L45" t="n">
-        <v>809.3596316889838</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M45" t="n">
-        <v>1374.163813917473</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N45" t="n">
-        <v>1967.311585229522</v>
+        <v>1500.205486869128</v>
       </c>
       <c r="O45" t="n">
         <v>1967.311585229522</v>
       </c>
       <c r="P45" t="n">
-        <v>2329.526291777778</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q45" t="n">
         <v>2527.485738752508</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.36168246957327</v>
+        <v>53.36168246957353</v>
       </c>
       <c r="C46" t="n">
-        <v>51.47293701923785</v>
+        <v>51.472937019238</v>
       </c>
       <c r="D46" t="n">
-        <v>51.47293701923785</v>
+        <v>51.472937019238</v>
       </c>
       <c r="E46" t="n">
-        <v>51.47293701923785</v>
+        <v>51.472937019238</v>
       </c>
       <c r="F46" t="n">
-        <v>51.47293701923785</v>
+        <v>51.472937019238</v>
       </c>
       <c r="G46" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H46" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I46" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J46" t="n">
-        <v>50.54971477505013</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K46" t="n">
         <v>114.8193015577264</v>
@@ -7825,31 +7825,31 @@
         <v>803.5102093354881</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.2262175402376</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R46" t="n">
-        <v>791.2262175402376</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S46" t="n">
-        <v>749.9368836597075</v>
+        <v>762.2208754549579</v>
       </c>
       <c r="T46" t="n">
-        <v>685.6358098450947</v>
+        <v>685.6358098450955</v>
       </c>
       <c r="U46" t="n">
-        <v>566.1874836385414</v>
+        <v>566.1874836385421</v>
       </c>
       <c r="V46" t="n">
-        <v>473.1794032849483</v>
+        <v>305.4521791969647</v>
       </c>
       <c r="W46" t="n">
-        <v>187.0230018023474</v>
+        <v>187.023001802348</v>
       </c>
       <c r="X46" t="n">
-        <v>123.4977617857074</v>
+        <v>123.4977617857079</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.18982706596881</v>
+        <v>69.18982706596918</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>103.2182277729913</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>534.0847761085863</v>
+        <v>99.46345316426078</v>
       </c>
       <c r="N11" t="n">
-        <v>531.6378514309457</v>
+        <v>80.34503610263853</v>
       </c>
       <c r="O11" t="n">
-        <v>210.0385108737205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.4392174774051</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,19 +8775,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>34.9073078967277</v>
+        <v>34.90730789672772</v>
       </c>
       <c r="N12" t="n">
-        <v>272.0507919453289</v>
+        <v>24.00592370515632</v>
       </c>
       <c r="O12" t="n">
-        <v>491.4894886098788</v>
+        <v>448.6675317989918</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.14143670839249</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>103.2182277729913</v>
       </c>
       <c r="L14" t="n">
-        <v>98.38758376726631</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>534.0847761085864</v>
+        <v>82.79196078027918</v>
       </c>
       <c r="N14" t="n">
-        <v>531.6378514309457</v>
+        <v>415.1873370561429</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -9012,19 +9012,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>34.9073078967277</v>
+        <v>192.0443884340518</v>
       </c>
       <c r="N15" t="n">
-        <v>24.00592370515631</v>
+        <v>24.00592370515632</v>
       </c>
       <c r="O15" t="n">
-        <v>448.6675317989912</v>
+        <v>491.489488609879</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9170,16 +9170,16 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>534.0847761085863</v>
+        <v>82.79196078027918</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8256937748828</v>
+        <v>415.1873370561429</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>102.4071485758795</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>43.52671764789213</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>70.26605470698662</v>
+        <v>34.90730789672772</v>
       </c>
       <c r="N18" t="n">
-        <v>475.2987390334635</v>
+        <v>24.00592370515632</v>
       </c>
       <c r="O18" t="n">
-        <v>491.4894886098788</v>
+        <v>491.489488609879</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>230.2785172457166</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,22 +9401,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729913</v>
       </c>
       <c r="L20" t="n">
-        <v>97.76580185407853</v>
+        <v>291.1474212595231</v>
       </c>
       <c r="M20" t="n">
-        <v>93.36441489746004</v>
+        <v>534.0847761085864</v>
       </c>
       <c r="N20" t="n">
-        <v>531.6378514309457</v>
+        <v>531.6378514309458</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>102.4071485758795</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9477,25 +9477,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>193.42512743589</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>486.2001232250349</v>
+        <v>192.0443884340518</v>
       </c>
       <c r="N21" t="n">
-        <v>475.2987390334635</v>
+        <v>24.00592370515632</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4894886098788</v>
+        <v>491.489488609879</v>
       </c>
       <c r="P21" t="n">
-        <v>48.12815827408364</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>73.14143670839249</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>96.65426516890469</v>
+        <v>101.1354488264179</v>
       </c>
       <c r="K23" t="n">
-        <v>103.2182277729913</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>249.083051340738</v>
+        <v>534.0847761085864</v>
       </c>
       <c r="N23" t="n">
-        <v>531.6378514309457</v>
+        <v>80.34503610263853</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>102.4071485758795</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.4392174774051</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,19 +9720,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>439.2704920836097</v>
       </c>
       <c r="M24" t="n">
-        <v>357.9587920436746</v>
+        <v>34.90730789672772</v>
       </c>
       <c r="N24" t="n">
-        <v>24.00592370515631</v>
+        <v>475.2987390334636</v>
       </c>
       <c r="O24" t="n">
-        <v>491.4894886098788</v>
+        <v>40.19667328157169</v>
       </c>
       <c r="P24" t="n">
-        <v>48.12815827408364</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>105.1615370726854</v>
+        <v>105.1615370726857</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10194,16 +10194,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>43.52671764789213</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726857</v>
       </c>
       <c r="O30" t="n">
-        <v>432.6031967324191</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>73.01055823968255</v>
+        <v>129.0541861125407</v>
       </c>
       <c r="K33" t="n">
-        <v>60.64445572062075</v>
+        <v>60.64445572062076</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.1850645812506</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10595,13 +10595,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
-        <v>433.6306018875665</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>160.246586220124</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10674,10 +10674,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>576.9858788508622</v>
+        <v>105.1615370726861</v>
       </c>
       <c r="O36" t="n">
-        <v>40.19667328157168</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>326.2758591378777</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10838,10 +10838,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>319.8168566005934</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>116.4392174774051</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,16 +10899,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>60.64445572062075</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>87.43303330106573</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10917,7 +10917,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>270.086189756564</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>96.65426516890469</v>
+        <v>96.6542651689047</v>
       </c>
       <c r="K41" t="n">
-        <v>286.4686364945003</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>141.0890880098637</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>60.64445572062075</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>338.1770394191424</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726861</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>96.65426516890469</v>
+        <v>96.6542651689047</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.0890880098623</v>
+        <v>141.0890880098637</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11379,16 +11379,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>435.9332410987396</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726861</v>
       </c>
       <c r="O45" t="n">
-        <v>40.19667328157168</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.8850331288905</v>
+        <v>260.8850331288904</v>
       </c>
       <c r="C11" t="n">
-        <v>248.8963500865722</v>
+        <v>184.6793213148984</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.6197917010057</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>280.7916077889828</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>18.95690544140081</v>
+        <v>18.9569054414007</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>123.0708631572777</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>61.57543400605267</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>229.6915098470264</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.3883658759719</v>
+        <v>260.3883658759718</v>
       </c>
     </row>
     <row r="12">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.6197917010056</v>
       </c>
       <c r="F14" t="n">
-        <v>280.7916077889829</v>
+        <v>134.4886522853821</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>282.1305160374087</v>
       </c>
       <c r="H14" t="n">
-        <v>58.16010770617395</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>90.29547644886772</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.0708631572777</v>
+        <v>123.0708631572776</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3914103690696</v>
+        <v>204.3914103690695</v>
       </c>
       <c r="W14" t="n">
-        <v>229.6915098470265</v>
+        <v>229.6915098470264</v>
       </c>
       <c r="X14" t="n">
-        <v>248.9917680797731</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>248909.9052398739</v>
+      </c>
+      <c r="C2" t="n">
         <v>248909.9052398738</v>
-      </c>
-      <c r="C2" t="n">
-        <v>248909.9052398739</v>
       </c>
       <c r="D2" t="n">
         <v>248909.9052398739</v>
       </c>
       <c r="E2" t="n">
-        <v>217518.2093889245</v>
+        <v>217518.2093889246</v>
       </c>
       <c r="F2" t="n">
         <v>217518.2093889245</v>
       </c>
       <c r="G2" t="n">
-        <v>249477.8196606092</v>
+        <v>249477.819660609</v>
       </c>
       <c r="H2" t="n">
         <v>249477.8196606092</v>
       </c>
       <c r="I2" t="n">
+        <v>249477.8196606092</v>
+      </c>
+      <c r="J2" t="n">
+        <v>249477.8196606092</v>
+      </c>
+      <c r="K2" t="n">
         <v>249477.8196606091</v>
       </c>
-      <c r="J2" t="n">
-        <v>249477.8196606093</v>
-      </c>
-      <c r="K2" t="n">
-        <v>249477.8196606093</v>
-      </c>
       <c r="L2" t="n">
-        <v>249477.8196606093</v>
+        <v>249477.8196606092</v>
       </c>
       <c r="M2" t="n">
+        <v>249477.8196606085</v>
+      </c>
+      <c r="N2" t="n">
         <v>249477.8196606086</v>
       </c>
-      <c r="N2" t="n">
-        <v>249477.8196606088</v>
-      </c>
       <c r="O2" t="n">
-        <v>249477.8196606087</v>
+        <v>249477.8196606085</v>
       </c>
       <c r="P2" t="n">
-        <v>249477.8196606087</v>
+        <v>249477.8196606086</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356901.2563746109</v>
+        <v>356901.256374611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909416</v>
+        <v>72236.38115909407</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120312.4428466249</v>
+        <v>120312.4428466251</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909413</v>
+        <v>72236.38115909407</v>
       </c>
       <c r="M3" t="n">
-        <v>103055.0537486388</v>
+        <v>103055.0537486387</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.779650763687</v>
+        <v>8860.779650763789</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>415219.1534460828</v>
       </c>
       <c r="E4" t="n">
-        <v>292825.0084179229</v>
+        <v>292825.008417923</v>
       </c>
       <c r="F4" t="n">
-        <v>292825.0084179229</v>
+        <v>292825.008417923</v>
       </c>
       <c r="G4" t="n">
-        <v>348860.117600111</v>
+        <v>348860.1176001111</v>
       </c>
       <c r="H4" t="n">
         <v>348860.117600111</v>
@@ -26439,7 +26439,7 @@
         <v>348860.117600111</v>
       </c>
       <c r="J4" t="n">
-        <v>338193.2769757741</v>
+        <v>338193.2769757742</v>
       </c>
       <c r="K4" t="n">
         <v>338193.2769757742</v>
@@ -26448,16 +26448,16 @@
         <v>338193.2769757742</v>
       </c>
       <c r="M4" t="n">
-        <v>339446.9901772323</v>
+        <v>339446.9901772324</v>
       </c>
       <c r="N4" t="n">
         <v>339446.9901772323</v>
       </c>
       <c r="O4" t="n">
+        <v>339446.9901772323</v>
+      </c>
+      <c r="P4" t="n">
         <v>339446.9901772322</v>
-      </c>
-      <c r="P4" t="n">
-        <v>339446.9901772323</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41524.90096894782</v>
+        <v>41524.90096894783</v>
       </c>
       <c r="F5" t="n">
-        <v>41524.90096894782</v>
+        <v>41524.90096894783</v>
       </c>
       <c r="G5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="H5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="I5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="J5" t="n">
-        <v>65082.64625607464</v>
+        <v>65082.64625607467</v>
       </c>
       <c r="K5" t="n">
         <v>65082.64625607467</v>
       </c>
       <c r="L5" t="n">
-        <v>65082.64625607465</v>
+        <v>65082.64625607467</v>
       </c>
       <c r="M5" t="n">
-        <v>55600.50041746882</v>
+        <v>55600.50041746883</v>
       </c>
       <c r="N5" t="n">
         <v>55600.50041746881</v>
       </c>
       <c r="O5" t="n">
-        <v>55600.50041746881</v>
+        <v>55600.50041746883</v>
       </c>
       <c r="P5" t="n">
-        <v>55600.50041746881</v>
+        <v>55600.50041746882</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199936.848206209</v>
+        <v>-199941.2167786761</v>
       </c>
       <c r="C6" t="n">
-        <v>-199936.8482062089</v>
+        <v>-199941.2167786761</v>
       </c>
       <c r="D6" t="n">
-        <v>-199936.8482062089</v>
+        <v>-199941.2167786761</v>
       </c>
       <c r="E6" t="n">
-        <v>-473732.9563725571</v>
+        <v>-473978.7995284933</v>
       </c>
       <c r="F6" t="n">
-        <v>-116831.6999979463</v>
+        <v>-117077.5431538824</v>
       </c>
       <c r="G6" t="n">
-        <v>-220734.6304771237</v>
+        <v>-220734.6304771238</v>
       </c>
       <c r="H6" t="n">
         <v>-148498.2493180295</v>
       </c>
       <c r="I6" t="n">
-        <v>-148498.2493180296</v>
+        <v>-148498.2493180295</v>
       </c>
       <c r="J6" t="n">
-        <v>-274110.5464178643</v>
+        <v>-274110.5464178647</v>
       </c>
       <c r="K6" t="n">
         <v>-153798.1035712397</v>
       </c>
       <c r="L6" t="n">
-        <v>-226034.4847303337</v>
+        <v>-226034.4847303338</v>
       </c>
       <c r="M6" t="n">
-        <v>-248624.7246827313</v>
+        <v>-248624.7246827314</v>
       </c>
       <c r="N6" t="n">
-        <v>-145569.6709340923</v>
+        <v>-145569.6709340925</v>
       </c>
       <c r="O6" t="n">
-        <v>-154430.4505848561</v>
+        <v>-154430.4505848564</v>
       </c>
       <c r="P6" t="n">
         <v>-145569.6709340924</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G2" t="n">
         <v>219.5135474428162</v>
@@ -26716,7 +26716,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="M2" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="N2" t="n">
         <v>166.0499518471044</v>
@@ -26725,7 +26725,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="P2" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="F4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="G4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="H4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="I4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="J4" t="n">
-        <v>877.259637406632</v>
+        <v>877.2596374066325</v>
       </c>
       <c r="K4" t="n">
-        <v>877.2596374066325</v>
+        <v>877.2596374066326</v>
       </c>
       <c r="L4" t="n">
-        <v>877.2596374066322</v>
+        <v>877.2596374066326</v>
       </c>
       <c r="M4" t="n">
-        <v>631.8714346881269</v>
+        <v>631.871434688127</v>
       </c>
       <c r="N4" t="n">
-        <v>631.8714346881267</v>
+        <v>631.8714346881268</v>
       </c>
       <c r="O4" t="n">
-        <v>631.8714346881267</v>
+        <v>631.871434688127</v>
       </c>
       <c r="P4" t="n">
-        <v>631.8714346881267</v>
+        <v>631.871434688127</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.2954764488677</v>
+        <v>90.29547644886759</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.07597456345461</v>
+        <v>11.07597456345472</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886767</v>
+        <v>90.29547644886759</v>
       </c>
       <c r="M2" t="n">
-        <v>64.67850083478218</v>
+        <v>64.67850083478213</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345461</v>
+        <v>11.07597456345474</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9668220783248</v>
+        <v>425.9668220783252</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.9046126098019</v>
+        <v>205.9046126098017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.2954764488677</v>
+        <v>90.29547644886759</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345461</v>
+        <v>11.07597456345472</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="12">
@@ -28172,19 +28172,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G12" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H12" t="n">
-        <v>56.79401750689163</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>90.1449210545118</v>
       </c>
       <c r="X12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="13">
@@ -28245,40 +28245,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>97.94315950317221</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.94315950317417</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="R13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="S13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G15" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H15" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>33.39550253257955</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28466,13 +28466,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>129.2180709939485</v>
+        <v>56.79401750689073</v>
       </c>
       <c r="X15" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,37 +28482,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>97.94315950317423</v>
+        <v>97.94315950317218</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="R16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="S16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="17">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>37.95066670921835</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -28655,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>70.23796957295853</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28694,10 +28694,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28725,7 +28725,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28737,13 +28737,13 @@
         <v>166.9639418688503</v>
       </c>
       <c r="H19" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.60739031761008</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S19" t="n">
-        <v>2.860456701642079</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T19" t="n">
         <v>219.5135474428162</v>
@@ -28779,13 +28779,13 @@
         <v>219.5135474428162</v>
       </c>
       <c r="V19" t="n">
-        <v>219.5135474428162</v>
+        <v>159.3182253620238</v>
       </c>
       <c r="W19" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="Y19" t="n">
         <v>219.5135474428162</v>
@@ -28886,16 +28886,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>83.18219227293091</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>33.49162987556053</v>
       </c>
     </row>
     <row r="22">
@@ -29001,16 +29001,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.155951813783844</v>
+        <v>19.98302838075722</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>219.5135474428162</v>
@@ -29025,7 +29025,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="23">
@@ -29117,25 +29117,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>61.44429348334602</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>88.37269711622415</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -29205,13 +29205,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>72.26750461931616</v>
       </c>
       <c r="G25" t="n">
         <v>166.9639418688503</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I25" t="n">
         <v>134.7433458784038</v>
@@ -29238,22 +29238,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S25" t="n">
         <v>206.9263923888292</v>
       </c>
       <c r="T25" t="n">
-        <v>9.072546233650485</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="U25" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>219.5135474428162</v>
@@ -29308,7 +29308,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>56.34270386546774</v>
+        <v>56.34270386546956</v>
       </c>
       <c r="O26" t="n">
         <v>101.3714510123223</v>
@@ -29475,7 +29475,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123226</v>
       </c>
       <c r="R28" t="n">
         <v>101.3714510123223</v>
@@ -29539,13 +29539,13 @@
         <v>101.3714510123223</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M29" t="n">
-        <v>56.34270386546939</v>
+        <v>56.34270386546984</v>
       </c>
       <c r="N29" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>101.3714510123223</v>
@@ -29691,7 +29691,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J31" t="n">
-        <v>101.3714510123219</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K31" t="n">
         <v>101.3714510123223</v>
@@ -29779,7 +29779,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="M32" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>101.3714510123223</v>
@@ -29788,10 +29788,10 @@
         <v>101.3714510123223</v>
       </c>
       <c r="P32" t="n">
-        <v>56.34270386546848</v>
+        <v>56.3427038654699</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R32" t="n">
         <v>101.3714510123223</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="E35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="F35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="G35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="I35" t="n">
         <v>148.1749764353493</v>
@@ -30034,25 +30034,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30153,16 +30153,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>154.6217731141552</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H37" t="n">
         <v>155.4085199241127</v>
       </c>
       <c r="I37" t="n">
-        <v>134.7433458784038</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>40.60739031761008</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R37" t="n">
-        <v>136.0388409905457</v>
+        <v>92.57108314454709</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="38">
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30390,16 +30390,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>155.4085199241127</v>
       </c>
       <c r="I40" t="n">
-        <v>134.7433458784038</v>
+        <v>122.5821940011061</v>
       </c>
       <c r="J40" t="n">
         <v>40.60739031761008</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R40" t="n">
         <v>136.0388409905457</v>
@@ -30447,7 +30447,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.6217731141558</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="41">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.318590178329032e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>29.17921158466139</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.0499518471044</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R43" t="n">
         <v>136.0388409905457</v>
@@ -30669,7 +30669,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0499518471044</v>
+        <v>28.44623844031236</v>
       </c>
       <c r="U43" t="n">
         <v>166.0499518471044</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="C44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="D44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="E44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="F44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="G44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="H44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="I44" t="n">
         <v>148.1749764353493</v>
@@ -30745,25 +30745,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="T44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="U44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="V44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="W44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
     <row r="45">
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>-4.334310688136611e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="C46" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="H46" t="n">
         <v>155.4085199241127</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.665924689675128</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R46" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698074</v>
       </c>
       <c r="U46" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="V46" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X46" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
   </sheetData>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H11" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I11" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J11" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K11" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L11" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M11" t="n">
         <v>104.3643537168799</v>
@@ -31777,13 +31777,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P11" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R11" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S11" t="n">
         <v>13.54397050151076</v>
@@ -31792,7 +31792,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H12" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I12" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J12" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K12" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L12" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M12" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N12" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O12" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P12" t="n">
         <v>60.72604775005968</v>
@@ -31862,16 +31862,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R12" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S12" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T12" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,28 +31914,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I13" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J13" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K13" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L13" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M13" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N13" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O13" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P13" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q13" t="n">
         <v>22.32489136587476</v>
@@ -31944,7 +31944,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S13" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T13" t="n">
         <v>1.139148728906865</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H14" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I14" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J14" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K14" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L14" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M14" t="n">
         <v>104.3643537168799</v>
@@ -32014,13 +32014,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P14" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R14" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S14" t="n">
         <v>13.54397050151076</v>
@@ -32029,7 +32029,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H15" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I15" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J15" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K15" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L15" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M15" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N15" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O15" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P15" t="n">
         <v>60.72604775005968</v>
@@ -32099,16 +32099,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R15" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S15" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T15" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,28 +32151,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I16" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J16" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K16" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L16" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M16" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N16" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O16" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P16" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q16" t="n">
         <v>22.32489136587476</v>
@@ -32181,7 +32181,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S16" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T16" t="n">
         <v>1.139148728906865</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H17" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I17" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J17" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K17" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L17" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M17" t="n">
         <v>104.3643537168799</v>
@@ -32251,13 +32251,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P17" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R17" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S17" t="n">
         <v>13.54397050151076</v>
@@ -32266,7 +32266,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H18" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I18" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J18" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K18" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L18" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M18" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N18" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O18" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P18" t="n">
         <v>60.72604775005968</v>
@@ -32336,16 +32336,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R18" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S18" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T18" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,28 +32388,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I19" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J19" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K19" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L19" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M19" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N19" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O19" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P19" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q19" t="n">
         <v>22.32489136587476</v>
@@ -32418,7 +32418,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S19" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T19" t="n">
         <v>1.139148728906865</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H20" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I20" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J20" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K20" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L20" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M20" t="n">
         <v>104.3643537168799</v>
@@ -32488,13 +32488,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P20" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R20" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S20" t="n">
         <v>13.54397050151076</v>
@@ -32503,7 +32503,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H21" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I21" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J21" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K21" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L21" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M21" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N21" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O21" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P21" t="n">
         <v>60.72604775005968</v>
@@ -32573,16 +32573,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R21" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S21" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T21" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,28 +32625,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I22" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J22" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K22" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L22" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M22" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N22" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O22" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P22" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q22" t="n">
         <v>22.32489136587476</v>
@@ -32655,7 +32655,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S22" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T22" t="n">
         <v>1.139148728906865</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H23" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J23" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K23" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L23" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M23" t="n">
         <v>104.3643537168799</v>
@@ -32725,13 +32725,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P23" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R23" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S23" t="n">
         <v>13.54397050151076</v>
@@ -32740,7 +32740,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H24" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I24" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J24" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K24" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L24" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M24" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N24" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O24" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P24" t="n">
         <v>60.72604775005968</v>
@@ -32810,16 +32810,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R24" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S24" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T24" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,28 +32862,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I25" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J25" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K25" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L25" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M25" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N25" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O25" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P25" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q25" t="n">
         <v>22.32489136587476</v>
@@ -32892,7 +32892,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S25" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T25" t="n">
         <v>1.139148728906865</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H26" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I26" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J26" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K26" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L26" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M26" t="n">
         <v>104.3643537168799</v>
@@ -32962,13 +32962,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P26" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R26" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S26" t="n">
         <v>13.54397050151076</v>
@@ -32977,7 +32977,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H27" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I27" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J27" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K27" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L27" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M27" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N27" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O27" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P27" t="n">
         <v>60.72604775005968</v>
@@ -33047,16 +33047,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R27" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S27" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T27" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,28 +33099,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I28" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J28" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K28" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L28" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M28" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N28" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O28" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P28" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q28" t="n">
         <v>22.32489136587476</v>
@@ -33129,7 +33129,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S28" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T28" t="n">
         <v>1.139148728906865</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H29" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I29" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J29" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K29" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L29" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M29" t="n">
         <v>104.3643537168799</v>
@@ -33199,13 +33199,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P29" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R29" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S29" t="n">
         <v>13.54397050151076</v>
@@ -33214,7 +33214,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H30" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I30" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J30" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K30" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L30" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M30" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N30" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O30" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P30" t="n">
         <v>60.72604775005968</v>
@@ -33284,16 +33284,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R30" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S30" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T30" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,28 +33336,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I31" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J31" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K31" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L31" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M31" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N31" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O31" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P31" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q31" t="n">
         <v>22.32489136587476</v>
@@ -33366,7 +33366,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S31" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T31" t="n">
         <v>1.139148728906865</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H32" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I32" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J32" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K32" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L32" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M32" t="n">
         <v>104.3643537168799</v>
@@ -33436,13 +33436,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P32" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R32" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S32" t="n">
         <v>13.54397050151076</v>
@@ -33451,7 +33451,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H33" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I33" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J33" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K33" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L33" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M33" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N33" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O33" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P33" t="n">
         <v>60.72604775005968</v>
@@ -33521,16 +33521,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R33" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S33" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T33" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,28 +33573,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I34" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J34" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K34" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L34" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M34" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N34" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O34" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P34" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q34" t="n">
         <v>22.32489136587476</v>
@@ -33603,7 +33603,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S34" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T34" t="n">
         <v>1.139148728906865</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H35" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I35" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J35" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K35" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L35" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M35" t="n">
         <v>104.3643537168799</v>
@@ -33673,13 +33673,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P35" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R35" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S35" t="n">
         <v>13.54397050151076</v>
@@ -33688,7 +33688,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H36" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I36" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J36" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K36" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L36" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M36" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N36" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O36" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P36" t="n">
         <v>60.72604775005968</v>
@@ -33758,16 +33758,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R36" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S36" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T36" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,28 +33810,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I37" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J37" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K37" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L37" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M37" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N37" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O37" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P37" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q37" t="n">
         <v>22.32489136587476</v>
@@ -33840,7 +33840,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S37" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T37" t="n">
         <v>1.139148728906865</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H38" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I38" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J38" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K38" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L38" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M38" t="n">
         <v>104.3643537168799</v>
@@ -33910,13 +33910,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P38" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R38" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S38" t="n">
         <v>13.54397050151076</v>
@@ -33925,7 +33925,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H39" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I39" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J39" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K39" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L39" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M39" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N39" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O39" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P39" t="n">
         <v>60.72604775005968</v>
@@ -33995,16 +33995,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R39" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S39" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T39" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,28 +34047,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I40" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J40" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K40" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L40" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M40" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N40" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O40" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P40" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q40" t="n">
         <v>22.32489136587476</v>
@@ -34077,7 +34077,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S40" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T40" t="n">
         <v>1.139148728906865</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H41" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I41" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J41" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K41" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L41" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M41" t="n">
         <v>104.3643537168799</v>
@@ -34147,13 +34147,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P41" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R41" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S41" t="n">
         <v>13.54397050151076</v>
@@ -34162,7 +34162,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H42" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I42" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J42" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K42" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L42" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M42" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N42" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O42" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P42" t="n">
         <v>60.72604775005968</v>
@@ -34232,16 +34232,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R42" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S42" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T42" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,28 +34284,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I43" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J43" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K43" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L43" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M43" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N43" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O43" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P43" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q43" t="n">
         <v>22.32489136587476</v>
@@ -34314,7 +34314,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S43" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T43" t="n">
         <v>1.139148728906865</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H44" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I44" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J44" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K44" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L44" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M44" t="n">
         <v>104.3643537168799</v>
@@ -34384,13 +34384,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P44" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R44" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S44" t="n">
         <v>13.54397050151076</v>
@@ -34399,7 +34399,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H45" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I45" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J45" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K45" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L45" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M45" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N45" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O45" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P45" t="n">
         <v>60.72604775005968</v>
@@ -34469,16 +34469,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R45" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S45" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T45" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,28 +34521,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I46" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J46" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K46" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L46" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M46" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N46" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O46" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P46" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q46" t="n">
         <v>22.32489136587476</v>
@@ -34551,7 +34551,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S46" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T46" t="n">
         <v>1.139148728906865</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L11" t="n">
         <v>445.193777061507</v>
       </c>
       <c r="M11" t="n">
-        <v>451.2928153283072</v>
+        <v>16.6714923839816</v>
       </c>
       <c r="N11" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>123.2266284034814</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P11" t="n">
         <v>315.9311720470479</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L12" t="n">
         <v>438.5657312466048</v>
@@ -35498,16 +35498,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>248.0448682401726</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>451.2928153283072</v>
+        <v>408.4708585174201</v>
       </c>
       <c r="P12" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.61068067633838</v>
+        <v>88.61068067633849</v>
       </c>
       <c r="K13" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L13" t="n">
-        <v>270.4789118440224</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M13" t="n">
-        <v>160.9775757515334</v>
+        <v>258.9207352547056</v>
       </c>
       <c r="N13" t="n">
         <v>160.4170175595628</v>
@@ -35586,7 +35586,7 @@
         <v>95.84970920848468</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.11608293620108</v>
+        <v>113.3909944269755</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.621781913187776</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M14" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>451.2928153283072</v>
+        <v>334.8423009535044</v>
       </c>
       <c r="O14" t="n">
         <v>408.2283531713298</v>
@@ -35665,7 +35665,7 @@
         <v>315.9311720470479</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K15" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L15" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>157.1370805373241</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>408.4708585174195</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="P15" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.61068067633838</v>
+        <v>88.61068067633849</v>
       </c>
       <c r="K16" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L16" t="n">
-        <v>239.2040003532482</v>
+        <v>239.2040003532461</v>
       </c>
       <c r="M16" t="n">
         <v>160.9775757515334</v>
@@ -35823,7 +35823,7 @@
         <v>95.84970920848468</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3909944269754</v>
+        <v>113.3909944269755</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>445.193777061507</v>
       </c>
       <c r="M17" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>199.4806576722443</v>
+        <v>334.8423009535044</v>
       </c>
       <c r="O17" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K18" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M18" t="n">
-        <v>35.35874681025892</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="P18" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.9590373482113</v>
+        <v>157.1370805373241</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L19" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M19" t="n">
         <v>160.9775757515334</v>
@@ -36121,25 +36121,25 @@
         <v>123.1713345547912</v>
       </c>
       <c r="K20" t="n">
-        <v>318.1708085695228</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>193.3816194054445</v>
       </c>
       <c r="M20" t="n">
-        <v>10.57245411718088</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N20" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O20" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P20" t="n">
-        <v>315.9311720470479</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K21" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L21" t="n">
-        <v>149.8984097879978</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M21" t="n">
-        <v>451.2928153283072</v>
+        <v>157.1370805373241</v>
       </c>
       <c r="N21" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>451.2928153283072</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L22" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M22" t="n">
         <v>160.9775757515334</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.481183657513174</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L23" t="n">
         <v>445.193777061507</v>
       </c>
       <c r="M23" t="n">
-        <v>166.2910905604588</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N23" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P23" t="n">
-        <v>315.9311720470479</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K24" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L24" t="n">
-        <v>438.5657312466048</v>
+        <v>395.7437744357175</v>
       </c>
       <c r="M24" t="n">
-        <v>323.0514841469469</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O24" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q24" t="n">
         <v>199.9590373482113</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L25" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M25" t="n">
         <v>160.9775757515334</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.5427855671136</v>
+        <v>224.5427855671135</v>
       </c>
       <c r="K26" t="n">
-        <v>419.5422595818452</v>
+        <v>419.5422595818451</v>
       </c>
       <c r="L26" t="n">
         <v>546.5652280738293</v>
@@ -36604,19 +36604,19 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N26" t="n">
-        <v>544.5486694984086</v>
+        <v>544.5486694984104</v>
       </c>
       <c r="O26" t="n">
         <v>509.5998041836521</v>
       </c>
       <c r="P26" t="n">
-        <v>417.3026230593703</v>
+        <v>417.3026230593702</v>
       </c>
       <c r="Q26" t="n">
         <v>260.9417213927933</v>
       </c>
       <c r="R26" t="n">
-        <v>48.97499167450187</v>
+        <v>48.97499167450184</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K27" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L27" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M27" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N27" t="n">
-        <v>81.15561336752914</v>
+        <v>81.15561336752937</v>
       </c>
       <c r="O27" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P27" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q27" t="n">
         <v>199.9590373482113</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.76406069471226</v>
+        <v>60.76406069471223</v>
       </c>
       <c r="K28" t="n">
-        <v>166.2902255402782</v>
+        <v>166.2902255402781</v>
       </c>
       <c r="L28" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623962</v>
       </c>
       <c r="M28" t="n">
         <v>262.3490267638557</v>
@@ -36771,7 +36771,7 @@
         <v>197.221160220807</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.54437444534925</v>
+        <v>85.54437444534948</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.5427855671136</v>
+        <v>224.5427855671135</v>
       </c>
       <c r="K29" t="n">
-        <v>419.5422595818452</v>
+        <v>419.5422595818451</v>
       </c>
       <c r="L29" t="n">
-        <v>445.193777061507</v>
+        <v>546.5652280738293</v>
       </c>
       <c r="M29" t="n">
-        <v>557.9183366258725</v>
+        <v>557.9183366258729</v>
       </c>
       <c r="N29" t="n">
-        <v>589.5774166452632</v>
+        <v>488.2059656329408</v>
       </c>
       <c r="O29" t="n">
         <v>509.5998041836521</v>
       </c>
       <c r="P29" t="n">
-        <v>417.3026230593703</v>
+        <v>417.3026230593702</v>
       </c>
       <c r="Q29" t="n">
         <v>260.9417213927933</v>
       </c>
       <c r="R29" t="n">
-        <v>48.97499167450187</v>
+        <v>48.97499167450184</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K30" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M30" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N30" t="n">
-        <v>599.1391629414632</v>
+        <v>81.15561336752937</v>
       </c>
       <c r="O30" t="n">
-        <v>392.4065234508474</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P30" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q30" t="n">
         <v>199.9590373482113</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.76406069471185</v>
+        <v>60.76406069471223</v>
       </c>
       <c r="K31" t="n">
-        <v>166.2902255402782</v>
+        <v>166.2902255402781</v>
       </c>
       <c r="L31" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623962</v>
       </c>
       <c r="M31" t="n">
-        <v>262.3490267638557</v>
+        <v>262.3490267638556</v>
       </c>
       <c r="N31" t="n">
         <v>261.7884685718851</v>
       </c>
       <c r="O31" t="n">
-        <v>238.5136892363663</v>
+        <v>238.5136892363662</v>
       </c>
       <c r="P31" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.54437444534925</v>
+        <v>85.54437444534921</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.5427855671136</v>
+        <v>224.5427855671135</v>
       </c>
       <c r="K32" t="n">
         <v>419.5422595818451</v>
@@ -37075,7 +37075,7 @@
         <v>546.5652280738293</v>
       </c>
       <c r="M32" t="n">
-        <v>602.9470837727255</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N32" t="n">
         <v>589.5774166452632</v>
@@ -37084,10 +37084,10 @@
         <v>509.5998041836521</v>
       </c>
       <c r="P32" t="n">
-        <v>372.2738759125164</v>
+        <v>372.2738759125178</v>
       </c>
       <c r="Q32" t="n">
-        <v>159.570270380471</v>
+        <v>260.9417213927933</v>
       </c>
       <c r="R32" t="n">
         <v>48.97499167450184</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>56.04362787285812</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>438.5657312466048</v>
       </c>
       <c r="M33" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N33" t="n">
         <v>599.1391629414632</v>
       </c>
       <c r="O33" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P33" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.04362787285807</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>166.2902255402781</v>
       </c>
       <c r="L34" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623962</v>
       </c>
       <c r="M34" t="n">
-        <v>262.3490267638557</v>
+        <v>262.3490267638556</v>
       </c>
       <c r="N34" t="n">
         <v>261.7884685718851</v>
       </c>
       <c r="O34" t="n">
-        <v>238.5136892363663</v>
+        <v>238.5136892363662</v>
       </c>
       <c r="P34" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.54437444534922</v>
+        <v>85.54437444534921</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K35" t="n">
         <v>318.1708085695228</v>
@@ -37315,16 +37315,16 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N35" t="n">
-        <v>353.2855657849279</v>
+        <v>488.2059656329408</v>
       </c>
       <c r="O35" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P35" t="n">
-        <v>315.9311720470479</v>
+        <v>57.8394376442445</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K36" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L36" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M36" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N36" t="n">
-        <v>552.9799551457058</v>
+        <v>81.15561336752982</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P36" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q36" t="n">
         <v>199.9590373482113</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L37" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M37" t="n">
         <v>160.9775757515334</v>
@@ -37549,7 +37549,7 @@
         <v>445.193777061507</v>
       </c>
       <c r="M38" t="n">
-        <v>501.5756327604031</v>
+        <v>243.4838983575985</v>
       </c>
       <c r="N38" t="n">
         <v>488.2059656329408</v>
@@ -37558,10 +37558,10 @@
         <v>408.2283531713298</v>
       </c>
       <c r="P38" t="n">
-        <v>217.4097080247139</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L39" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M39" t="n">
-        <v>570.5092749782723</v>
+        <v>52.52572540433802</v>
       </c>
       <c r="N39" t="n">
         <v>599.1391629414632</v>
       </c>
       <c r="O39" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P39" t="n">
-        <v>221.9580314824803</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q39" t="n">
         <v>199.9590373482113</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L40" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M40" t="n">
         <v>160.9775757515334</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>183.2504087215089</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L41" t="n">
         <v>445.193777061507</v>
@@ -37798,7 +37798,7 @@
         <v>315.9311720470479</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.570270380471</v>
+        <v>24.64987053245851</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L42" t="n">
-        <v>294.6503217712503</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M42" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N42" t="n">
-        <v>599.1391629414632</v>
+        <v>81.15561336752982</v>
       </c>
       <c r="O42" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P42" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q42" t="n">
         <v>199.9590373482113</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L43" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M43" t="n">
         <v>160.9775757515334</v>
@@ -38035,7 +38035,7 @@
         <v>315.9311720470479</v>
       </c>
       <c r="Q44" t="n">
-        <v>24.64987053245713</v>
+        <v>24.64987053245851</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K45" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L45" t="n">
-        <v>392.4065234508475</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M45" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N45" t="n">
-        <v>599.1391629414632</v>
+        <v>81.15561336752982</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P45" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q45" t="n">
         <v>199.9590373482113</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L46" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M46" t="n">
         <v>160.9775757515334</v>
